--- a/making/example.xlsx
+++ b/making/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoue\study\TeX\Graduation_Thesis\making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8EBD7-4249-4091-9D1E-E0EC90A75098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B183A6F-D6F2-4363-9E39-1320C008170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="SamplePuzzle" sheetId="5" r:id="rId4"/>
     <sheet name="Board" sheetId="3" r:id="rId5"/>
     <sheet name="NewPuzzle" sheetId="8" r:id="rId6"/>
+    <sheet name="NumberLink" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -115,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="134">
+  <borders count="159">
     <border>
       <left/>
       <right/>
@@ -1934,13 +1934,358 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2283,260 +2628,365 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2860,123 +3310,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="114"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-    </row>
-    <row r="2" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-    </row>
-    <row r="3" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-    </row>
-    <row r="4" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-    </row>
-    <row r="5" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-    </row>
-    <row r="6" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="114"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-    </row>
-    <row r="8" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="114"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-    </row>
-    <row r="9" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3882,276 +4223,276 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="7.875" style="115"/>
+    <col min="1" max="16384" width="7.875" style="114"/>
   </cols>
   <sheetData>
     <row r="3" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M4" s="117"/>
-      <c r="N4" s="118">
+      <c r="M4" s="116"/>
+      <c r="N4" s="117">
         <v>0</v>
       </c>
-      <c r="O4" s="118">
-        <v>2</v>
-      </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118">
-        <v>1</v>
-      </c>
-      <c r="R4" s="118"/>
-      <c r="S4" s="124">
+      <c r="O4" s="117">
+        <v>2</v>
+      </c>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117">
+        <v>1</v>
+      </c>
+      <c r="R4" s="117"/>
+      <c r="S4" s="123">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M5" s="125"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="132"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="131"/>
     </row>
     <row r="6" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M6" s="125"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131">
-        <v>3</v>
-      </c>
-      <c r="S6" s="132">
+      <c r="M6" s="124"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130">
+        <v>3</v>
+      </c>
+      <c r="S6" s="131">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M7" s="125">
-        <v>3</v>
-      </c>
-      <c r="N7" s="131">
+      <c r="M7" s="124">
+        <v>3</v>
+      </c>
+      <c r="N7" s="130">
         <v>0</v>
       </c>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131">
-        <v>3</v>
-      </c>
-      <c r="S7" s="132">
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130">
+        <v>3</v>
+      </c>
+      <c r="S7" s="131">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M8" s="125">
-        <v>3</v>
-      </c>
-      <c r="N8" s="131">
-        <v>1</v>
-      </c>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="132"/>
+      <c r="M8" s="124">
+        <v>3</v>
+      </c>
+      <c r="N8" s="130">
+        <v>1</v>
+      </c>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="131"/>
     </row>
     <row r="9" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M9" s="125"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="132"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="131"/>
     </row>
     <row r="10" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M10" s="151">
-        <v>3</v>
-      </c>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149">
-        <v>3</v>
-      </c>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149">
+      <c r="M10" s="150">
+        <v>3</v>
+      </c>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148">
+        <v>3</v>
+      </c>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148">
         <v>0</v>
       </c>
-      <c r="R10" s="149">
-        <v>2</v>
-      </c>
-      <c r="S10" s="152"/>
+      <c r="R10" s="148">
+        <v>2</v>
+      </c>
+      <c r="S10" s="151"/>
     </row>
     <row r="11" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
     </row>
     <row r="12" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M12" s="117">
+      <c r="M12" s="116">
         <v>0</v>
       </c>
-      <c r="N12" s="118">
+      <c r="N12" s="117">
         <v>0</v>
       </c>
-      <c r="O12" s="119">
-        <v>2</v>
-      </c>
-      <c r="P12" s="120">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="121">
-        <v>1</v>
-      </c>
-      <c r="R12" s="122">
-        <v>2</v>
-      </c>
-      <c r="S12" s="123">
+      <c r="O12" s="118">
+        <v>2</v>
+      </c>
+      <c r="P12" s="119">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="120">
+        <v>1</v>
+      </c>
+      <c r="R12" s="121">
+        <v>2</v>
+      </c>
+      <c r="S12" s="122">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M13" s="125">
+      <c r="M13" s="124">
         <v>0</v>
       </c>
-      <c r="N13" s="126">
-        <v>2</v>
-      </c>
-      <c r="O13" s="120">
-        <v>2</v>
-      </c>
-      <c r="P13" s="127">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="128">
-        <v>1</v>
-      </c>
-      <c r="R13" s="129">
-        <v>3</v>
-      </c>
-      <c r="S13" s="130">
+      <c r="N13" s="125">
+        <v>2</v>
+      </c>
+      <c r="O13" s="119">
+        <v>2</v>
+      </c>
+      <c r="P13" s="126">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="127">
+        <v>1</v>
+      </c>
+      <c r="R13" s="128">
+        <v>3</v>
+      </c>
+      <c r="S13" s="129">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M14" s="133">
-        <v>2</v>
-      </c>
-      <c r="N14" s="120">
-        <v>2</v>
-      </c>
-      <c r="O14" s="128">
-        <v>1</v>
-      </c>
-      <c r="P14" s="134">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="135">
-        <v>1</v>
-      </c>
-      <c r="R14" s="136">
-        <v>3</v>
-      </c>
-      <c r="S14" s="137">
+      <c r="M14" s="132">
+        <v>2</v>
+      </c>
+      <c r="N14" s="119">
+        <v>2</v>
+      </c>
+      <c r="O14" s="127">
+        <v>1</v>
+      </c>
+      <c r="P14" s="133">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="134">
+        <v>1</v>
+      </c>
+      <c r="R14" s="135">
+        <v>3</v>
+      </c>
+      <c r="S14" s="136">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L15" s="138"/>
-      <c r="M15" s="139">
-        <v>3</v>
-      </c>
-      <c r="N15" s="131">
+      <c r="L15" s="137"/>
+      <c r="M15" s="138">
+        <v>3</v>
+      </c>
+      <c r="N15" s="130">
         <v>0</v>
       </c>
-      <c r="O15" s="128">
-        <v>1</v>
-      </c>
-      <c r="P15" s="140">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="140">
-        <v>2</v>
-      </c>
-      <c r="R15" s="129">
-        <v>3</v>
-      </c>
-      <c r="S15" s="132">
+      <c r="O15" s="127">
+        <v>1</v>
+      </c>
+      <c r="P15" s="139">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="139">
+        <v>2</v>
+      </c>
+      <c r="R15" s="128">
+        <v>3</v>
+      </c>
+      <c r="S15" s="131">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M16" s="141">
-        <v>3</v>
-      </c>
-      <c r="N16" s="135">
-        <v>1</v>
-      </c>
-      <c r="O16" s="128">
-        <v>1</v>
-      </c>
-      <c r="P16" s="140">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="142">
-        <v>2</v>
-      </c>
-      <c r="R16" s="143">
-        <v>2</v>
-      </c>
-      <c r="S16" s="144">
+      <c r="M16" s="140">
+        <v>3</v>
+      </c>
+      <c r="N16" s="134">
+        <v>1</v>
+      </c>
+      <c r="O16" s="127">
+        <v>1</v>
+      </c>
+      <c r="P16" s="139">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="141">
+        <v>2</v>
+      </c>
+      <c r="R16" s="142">
+        <v>2</v>
+      </c>
+      <c r="S16" s="143">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L17" s="138"/>
-      <c r="M17" s="120">
-        <v>2</v>
-      </c>
-      <c r="N17" s="127">
-        <v>1</v>
-      </c>
-      <c r="O17" s="128">
-        <v>1</v>
-      </c>
-      <c r="P17" s="135">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="145">
-        <v>2</v>
-      </c>
-      <c r="R17" s="142">
-        <v>2</v>
-      </c>
-      <c r="S17" s="143">
+      <c r="L17" s="137"/>
+      <c r="M17" s="119">
+        <v>2</v>
+      </c>
+      <c r="N17" s="126">
+        <v>1</v>
+      </c>
+      <c r="O17" s="127">
+        <v>1</v>
+      </c>
+      <c r="P17" s="134">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="144">
+        <v>2</v>
+      </c>
+      <c r="R17" s="141">
+        <v>2</v>
+      </c>
+      <c r="S17" s="142">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L18" s="138"/>
-      <c r="M18" s="146">
-        <v>3</v>
-      </c>
-      <c r="N18" s="147">
-        <v>3</v>
-      </c>
-      <c r="O18" s="146">
-        <v>3</v>
-      </c>
-      <c r="P18" s="148">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="149">
+      <c r="L18" s="137"/>
+      <c r="M18" s="145">
+        <v>3</v>
+      </c>
+      <c r="N18" s="146">
+        <v>3</v>
+      </c>
+      <c r="O18" s="145">
+        <v>3</v>
+      </c>
+      <c r="P18" s="147">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="148">
         <v>0</v>
       </c>
-      <c r="R18" s="150">
-        <v>2</v>
-      </c>
-      <c r="S18" s="146">
+      <c r="R18" s="149">
+        <v>2</v>
+      </c>
+      <c r="S18" s="145">
         <v>3</v>
       </c>
     </row>
@@ -4169,7 +4510,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="B1:V11"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:V11"/>
@@ -4177,473 +4518,455 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="114"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-    </row>
-    <row r="2" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="114"/>
-      <c r="B2" s="156">
+    <row r="1" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+    </row>
+    <row r="2" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="154">
         <v>8</v>
       </c>
-      <c r="C2" s="157">
-        <v>3</v>
-      </c>
-      <c r="D2" s="157">
+      <c r="C2" s="155">
+        <v>3</v>
+      </c>
+      <c r="D2" s="155">
         <v>9</v>
       </c>
-      <c r="E2" s="157">
+      <c r="E2" s="155">
         <v>7</v>
       </c>
-      <c r="F2" s="157">
+      <c r="F2" s="155">
         <v>6</v>
       </c>
-      <c r="G2" s="157">
+      <c r="G2" s="155">
         <v>5</v>
       </c>
-      <c r="H2" s="157">
-        <v>1</v>
-      </c>
-      <c r="I2" s="157">
-        <v>2</v>
-      </c>
-      <c r="J2" s="158">
+      <c r="H2" s="155">
+        <v>1</v>
+      </c>
+      <c r="I2" s="155">
+        <v>2</v>
+      </c>
+      <c r="J2" s="156">
         <v>4</v>
       </c>
-      <c r="L2" s="164"/>
-      <c r="M2" s="165">
+      <c r="L2" s="162"/>
+      <c r="M2" s="163">
         <v>8</v>
       </c>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166">
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164">
         <v>5</v>
       </c>
-      <c r="S2" s="166">
-        <v>1</v>
-      </c>
-      <c r="T2" s="166"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="164"/>
-    </row>
-    <row r="3" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="114"/>
-      <c r="B3" s="159">
-        <v>2</v>
-      </c>
-      <c r="C3" s="154">
+      <c r="S2" s="164">
+        <v>1</v>
+      </c>
+      <c r="T2" s="164"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="162"/>
+    </row>
+    <row r="3" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="157">
+        <v>2</v>
+      </c>
+      <c r="C3" s="153">
         <v>6</v>
       </c>
-      <c r="D3" s="154">
-        <v>1</v>
-      </c>
-      <c r="E3" s="155">
-        <v>3</v>
-      </c>
-      <c r="F3" s="155">
+      <c r="D3" s="153">
+        <v>1</v>
+      </c>
+      <c r="E3" s="153">
+        <v>3</v>
+      </c>
+      <c r="F3" s="153">
         <v>9</v>
       </c>
-      <c r="G3" s="155">
+      <c r="G3" s="153">
         <v>4</v>
       </c>
-      <c r="H3" s="155">
+      <c r="H3" s="153">
         <v>8</v>
       </c>
-      <c r="I3" s="155">
+      <c r="I3" s="153">
         <v>7</v>
       </c>
-      <c r="J3" s="160">
+      <c r="J3" s="158">
         <v>5</v>
       </c>
-      <c r="L3" s="164"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169">
-        <v>1</v>
-      </c>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169">
+      <c r="L3" s="162"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167">
+        <v>1</v>
+      </c>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167">
         <v>8</v>
       </c>
-      <c r="T3" s="169"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="164"/>
-    </row>
-    <row r="4" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="114"/>
-      <c r="B4" s="159">
+      <c r="T3" s="167"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="162"/>
+    </row>
+    <row r="4" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="157">
         <v>7</v>
       </c>
-      <c r="C4" s="154">
+      <c r="C4" s="153">
         <v>4</v>
       </c>
-      <c r="D4" s="154">
+      <c r="D4" s="153">
         <v>5</v>
       </c>
-      <c r="E4" s="155">
-        <v>2</v>
-      </c>
-      <c r="F4" s="155">
+      <c r="E4" s="153">
+        <v>2</v>
+      </c>
+      <c r="F4" s="153">
         <v>8</v>
       </c>
-      <c r="G4" s="155">
-        <v>1</v>
-      </c>
-      <c r="H4" s="155">
-        <v>3</v>
-      </c>
-      <c r="I4" s="155">
+      <c r="G4" s="153">
+        <v>1</v>
+      </c>
+      <c r="H4" s="153">
+        <v>3</v>
+      </c>
+      <c r="I4" s="153">
         <v>9</v>
       </c>
-      <c r="J4" s="160">
+      <c r="J4" s="158">
         <v>6</v>
       </c>
-      <c r="L4" s="164"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="169">
+      <c r="L4" s="162"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="167">
         <v>4</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169">
+      <c r="O4" s="167"/>
+      <c r="P4" s="167">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167">
         <v>9</v>
       </c>
-      <c r="U4" s="170"/>
-      <c r="V4" s="164"/>
-    </row>
-    <row r="5" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="114"/>
-      <c r="B5" s="159">
+      <c r="U4" s="168"/>
+      <c r="V4" s="162"/>
+    </row>
+    <row r="5" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="157">
         <v>5</v>
       </c>
-      <c r="C5" s="155">
+      <c r="C5" s="153">
         <v>9</v>
       </c>
-      <c r="D5" s="155">
+      <c r="D5" s="153">
         <v>4</v>
       </c>
-      <c r="E5" s="155">
+      <c r="E5" s="153">
         <v>8</v>
       </c>
-      <c r="F5" s="155">
-        <v>3</v>
-      </c>
-      <c r="G5" s="155">
+      <c r="F5" s="153">
+        <v>3</v>
+      </c>
+      <c r="G5" s="153">
         <v>7</v>
       </c>
-      <c r="H5" s="155">
+      <c r="H5" s="153">
         <v>6</v>
       </c>
-      <c r="I5" s="155">
-        <v>1</v>
-      </c>
-      <c r="J5" s="160">
-        <v>2</v>
-      </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="169"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169">
-        <v>3</v>
-      </c>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="170">
-        <v>2</v>
-      </c>
-      <c r="V5" s="164"/>
-    </row>
-    <row r="6" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="114"/>
-      <c r="B6" s="159">
-        <v>1</v>
-      </c>
-      <c r="C6" s="155">
-        <v>2</v>
-      </c>
-      <c r="D6" s="155">
-        <v>3</v>
-      </c>
-      <c r="E6" s="155">
+      <c r="I5" s="153">
+        <v>1</v>
+      </c>
+      <c r="J5" s="158">
+        <v>2</v>
+      </c>
+      <c r="L5" s="162"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167">
+        <v>3</v>
+      </c>
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="168">
+        <v>2</v>
+      </c>
+      <c r="V5" s="162"/>
+    </row>
+    <row r="6" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="157">
+        <v>1</v>
+      </c>
+      <c r="C6" s="153">
+        <v>2</v>
+      </c>
+      <c r="D6" s="153">
+        <v>3</v>
+      </c>
+      <c r="E6" s="153">
         <v>4</v>
       </c>
-      <c r="F6" s="155">
+      <c r="F6" s="153">
         <v>5</v>
       </c>
-      <c r="G6" s="155">
+      <c r="G6" s="153">
         <v>6</v>
       </c>
-      <c r="H6" s="155">
+      <c r="H6" s="153">
         <v>7</v>
       </c>
-      <c r="I6" s="155">
+      <c r="I6" s="153">
         <v>8</v>
       </c>
-      <c r="J6" s="160">
+      <c r="J6" s="158">
         <v>9</v>
       </c>
-      <c r="L6" s="164"/>
-      <c r="M6" s="168">
-        <v>1</v>
-      </c>
-      <c r="N6" s="169">
-        <v>2</v>
-      </c>
-      <c r="O6" s="169">
-        <v>3</v>
-      </c>
-      <c r="P6" s="169">
+      <c r="L6" s="162"/>
+      <c r="M6" s="166">
+        <v>1</v>
+      </c>
+      <c r="N6" s="167">
+        <v>2</v>
+      </c>
+      <c r="O6" s="167">
+        <v>3</v>
+      </c>
+      <c r="P6" s="167">
         <v>4</v>
       </c>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="169">
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167">
         <v>6</v>
       </c>
-      <c r="S6" s="169">
+      <c r="S6" s="167">
         <v>7</v>
       </c>
-      <c r="T6" s="169">
+      <c r="T6" s="167">
         <v>8</v>
       </c>
-      <c r="U6" s="170">
+      <c r="U6" s="168">
         <v>9</v>
       </c>
-      <c r="V6" s="164"/>
-    </row>
-    <row r="7" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="114"/>
-      <c r="B7" s="159">
+      <c r="V6" s="162"/>
+    </row>
+    <row r="7" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="157">
         <v>6</v>
       </c>
-      <c r="C7" s="155">
+      <c r="C7" s="153">
         <v>7</v>
       </c>
-      <c r="D7" s="155">
+      <c r="D7" s="153">
         <v>8</v>
       </c>
-      <c r="E7" s="155">
+      <c r="E7" s="153">
         <v>9</v>
       </c>
-      <c r="F7" s="155">
-        <v>1</v>
-      </c>
-      <c r="G7" s="155">
-        <v>2</v>
-      </c>
-      <c r="H7" s="155">
+      <c r="F7" s="153">
+        <v>1</v>
+      </c>
+      <c r="G7" s="153">
+        <v>2</v>
+      </c>
+      <c r="H7" s="153">
         <v>5</v>
       </c>
-      <c r="I7" s="155">
+      <c r="I7" s="153">
         <v>4</v>
       </c>
-      <c r="J7" s="160">
-        <v>3</v>
-      </c>
-      <c r="L7" s="164"/>
-      <c r="M7" s="168">
+      <c r="J7" s="158">
+        <v>3</v>
+      </c>
+      <c r="L7" s="162"/>
+      <c r="M7" s="166">
         <v>6</v>
       </c>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169">
-        <v>1</v>
-      </c>
-      <c r="R7" s="169"/>
-      <c r="S7" s="169"/>
-      <c r="T7" s="169"/>
-      <c r="U7" s="170"/>
-      <c r="V7" s="164"/>
-    </row>
-    <row r="8" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="114"/>
-      <c r="B8" s="159">
-        <v>3</v>
-      </c>
-      <c r="C8" s="155">
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167">
+        <v>1</v>
+      </c>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="162"/>
+    </row>
+    <row r="8" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="157">
+        <v>3</v>
+      </c>
+      <c r="C8" s="153">
         <v>8</v>
       </c>
-      <c r="D8" s="155">
+      <c r="D8" s="153">
         <v>6</v>
       </c>
-      <c r="E8" s="155">
-        <v>1</v>
-      </c>
-      <c r="F8" s="155">
+      <c r="E8" s="153">
+        <v>1</v>
+      </c>
+      <c r="F8" s="153">
         <v>4</v>
       </c>
-      <c r="G8" s="155">
+      <c r="G8" s="153">
         <v>9</v>
       </c>
-      <c r="H8" s="155">
-        <v>2</v>
-      </c>
-      <c r="I8" s="155">
+      <c r="H8" s="153">
+        <v>2</v>
+      </c>
+      <c r="I8" s="153">
         <v>5</v>
       </c>
-      <c r="J8" s="160">
+      <c r="J8" s="158">
         <v>7</v>
       </c>
-      <c r="L8" s="164"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="169">
+      <c r="L8" s="162"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="167">
         <v>8</v>
       </c>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="169">
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167">
         <v>9</v>
       </c>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169">
+      <c r="S8" s="167"/>
+      <c r="T8" s="167">
         <v>5</v>
       </c>
-      <c r="U8" s="170"/>
-      <c r="V8" s="164"/>
-    </row>
-    <row r="9" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="114"/>
-      <c r="B9" s="159">
+      <c r="U8" s="168"/>
+      <c r="V8" s="162"/>
+    </row>
+    <row r="9" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="157">
         <v>9</v>
       </c>
-      <c r="C9" s="154">
-        <v>1</v>
-      </c>
-      <c r="D9" s="154">
-        <v>2</v>
-      </c>
-      <c r="E9" s="154">
+      <c r="C9" s="153">
+        <v>1</v>
+      </c>
+      <c r="D9" s="153">
+        <v>2</v>
+      </c>
+      <c r="E9" s="153">
         <v>5</v>
       </c>
-      <c r="F9" s="154">
+      <c r="F9" s="153">
         <v>7</v>
       </c>
-      <c r="G9" s="154">
-        <v>3</v>
-      </c>
-      <c r="H9" s="154">
+      <c r="G9" s="153">
+        <v>3</v>
+      </c>
+      <c r="H9" s="153">
         <v>4</v>
       </c>
-      <c r="I9" s="154">
+      <c r="I9" s="153">
         <v>6</v>
       </c>
-      <c r="J9" s="160">
+      <c r="J9" s="158">
         <v>8</v>
       </c>
-      <c r="L9" s="164"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="169">
-        <v>2</v>
-      </c>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="169"/>
-      <c r="S9" s="169">
+      <c r="L9" s="162"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167">
+        <v>2</v>
+      </c>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167">
         <v>4</v>
       </c>
-      <c r="T9" s="169"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="164"/>
-    </row>
-    <row r="10" spans="1:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="161">
+      <c r="T9" s="167"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="162"/>
+    </row>
+    <row r="10" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="159">
         <v>4</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="160">
         <v>5</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="160">
         <v>7</v>
       </c>
-      <c r="E10" s="162">
+      <c r="E10" s="160">
         <v>6</v>
       </c>
-      <c r="F10" s="162">
-        <v>2</v>
-      </c>
-      <c r="G10" s="162">
+      <c r="F10" s="160">
+        <v>2</v>
+      </c>
+      <c r="G10" s="160">
         <v>8</v>
       </c>
-      <c r="H10" s="162">
+      <c r="H10" s="160">
         <v>9</v>
       </c>
-      <c r="I10" s="162">
-        <v>3</v>
-      </c>
-      <c r="J10" s="163">
-        <v>1</v>
-      </c>
-      <c r="L10" s="164"/>
-      <c r="M10" s="171"/>
-      <c r="N10" s="172"/>
-      <c r="O10" s="172">
+      <c r="I10" s="160">
+        <v>3</v>
+      </c>
+      <c r="J10" s="161">
+        <v>1</v>
+      </c>
+      <c r="L10" s="162"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170">
         <v>7</v>
       </c>
-      <c r="P10" s="172">
+      <c r="P10" s="170">
         <v>6</v>
       </c>
-      <c r="Q10" s="172">
-        <v>2</v>
-      </c>
-      <c r="R10" s="172">
+      <c r="Q10" s="170">
+        <v>2</v>
+      </c>
+      <c r="R10" s="170">
         <v>8</v>
       </c>
-      <c r="S10" s="172">
+      <c r="S10" s="170">
         <v>9</v>
       </c>
-      <c r="T10" s="172">
-        <v>3</v>
-      </c>
-      <c r="U10" s="173">
-        <v>1</v>
-      </c>
-      <c r="V10" s="164"/>
-    </row>
-    <row r="11" spans="1:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
+      <c r="T10" s="170">
+        <v>3</v>
+      </c>
+      <c r="U10" s="171">
+        <v>1</v>
+      </c>
+      <c r="V10" s="162"/>
+    </row>
+    <row r="11" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4658,7 +4981,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D4"/>
@@ -4666,113 +4989,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="114"/>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-    </row>
-    <row r="2" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="114"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-    </row>
-    <row r="3" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="114"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-    </row>
-    <row r="4" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="114"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-    </row>
-    <row r="5" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-    </row>
-    <row r="6" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="114"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="114"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-    </row>
-    <row r="8" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="114"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-    </row>
-    <row r="9" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
+    <row r="2" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+    </row>
+    <row r="3" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+    </row>
+    <row r="4" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4787,174 +5017,460 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="F1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-    </row>
-    <row r="2" spans="1:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="F2" s="114"/>
-      <c r="G2" s="174">
-        <v>2</v>
-      </c>
-      <c r="H2" s="175">
-        <v>2</v>
-      </c>
-      <c r="I2" s="175">
-        <v>1</v>
-      </c>
-      <c r="J2" s="176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="114"/>
-      <c r="G3" s="177">
-        <v>2</v>
-      </c>
-      <c r="H3" s="178">
-        <v>1</v>
-      </c>
-      <c r="I3" s="178">
-        <v>2</v>
-      </c>
-      <c r="J3" s="179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F4" s="114"/>
-      <c r="G4" s="177">
-        <v>2</v>
-      </c>
-      <c r="H4" s="178">
-        <v>1</v>
-      </c>
-      <c r="I4" s="178">
-        <v>1</v>
-      </c>
-      <c r="J4" s="179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F5" s="114"/>
-      <c r="G5" s="180">
-        <v>1</v>
-      </c>
-      <c r="H5" s="181">
-        <v>1</v>
-      </c>
-      <c r="I5" s="181">
-        <v>2</v>
-      </c>
-      <c r="J5" s="182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-    </row>
-    <row r="7" spans="1:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="114"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="193">
-        <v>2</v>
-      </c>
-      <c r="H7" s="196">
-        <v>2</v>
-      </c>
-      <c r="I7" s="197">
-        <v>1</v>
-      </c>
-      <c r="J7" s="198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="114"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="185">
-        <v>2</v>
-      </c>
-      <c r="H8" s="190">
-        <v>1</v>
-      </c>
-      <c r="I8" s="194">
-        <v>2</v>
-      </c>
-      <c r="J8" s="195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="186">
-        <v>2</v>
-      </c>
-      <c r="H9" s="183">
-        <v>1</v>
-      </c>
-      <c r="I9" s="190">
-        <v>1</v>
-      </c>
-      <c r="J9" s="191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F10" s="114"/>
-      <c r="G10" s="187">
-        <v>1</v>
-      </c>
-      <c r="H10" s="188">
-        <v>1</v>
-      </c>
-      <c r="I10" s="189">
-        <v>2</v>
-      </c>
-      <c r="J10" s="192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-    </row>
+    <row r="1" spans="6:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="6:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="172">
+        <v>2</v>
+      </c>
+      <c r="H2" s="173">
+        <v>2</v>
+      </c>
+      <c r="I2" s="173">
+        <v>1</v>
+      </c>
+      <c r="J2" s="174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="6:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="175">
+        <v>2</v>
+      </c>
+      <c r="H3" s="176">
+        <v>1</v>
+      </c>
+      <c r="I3" s="176">
+        <v>2</v>
+      </c>
+      <c r="J3" s="177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="6:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="175">
+        <v>2</v>
+      </c>
+      <c r="H4" s="176">
+        <v>1</v>
+      </c>
+      <c r="I4" s="176">
+        <v>1</v>
+      </c>
+      <c r="J4" s="177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="6:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="178">
+        <v>1</v>
+      </c>
+      <c r="H5" s="179">
+        <v>1</v>
+      </c>
+      <c r="I5" s="179">
+        <v>2</v>
+      </c>
+      <c r="J5" s="180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="6:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="6:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="182"/>
+      <c r="G7" s="191">
+        <v>2</v>
+      </c>
+      <c r="H7" s="194">
+        <v>2</v>
+      </c>
+      <c r="I7" s="195">
+        <v>1</v>
+      </c>
+      <c r="J7" s="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="6:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="182"/>
+      <c r="G8" s="183">
+        <v>2</v>
+      </c>
+      <c r="H8" s="188">
+        <v>1</v>
+      </c>
+      <c r="I8" s="192">
+        <v>2</v>
+      </c>
+      <c r="J8" s="193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="6:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="184">
+        <v>2</v>
+      </c>
+      <c r="H9" s="181">
+        <v>1</v>
+      </c>
+      <c r="I9" s="188">
+        <v>1</v>
+      </c>
+      <c r="J9" s="189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G10" s="185">
+        <v>1</v>
+      </c>
+      <c r="H10" s="186">
+        <v>1</v>
+      </c>
+      <c r="I10" s="187">
+        <v>2</v>
+      </c>
+      <c r="J10" s="190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E18A180-6CAE-41F7-A445-04FC90C254EE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:32" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+    </row>
+    <row r="2" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="182"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="216"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
+      <c r="K2" s="224"/>
+      <c r="L2" s="224"/>
+      <c r="M2" s="224">
+        <v>3</v>
+      </c>
+      <c r="N2" s="224">
+        <v>2</v>
+      </c>
+      <c r="O2" s="224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="182"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="217"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="224"/>
+      <c r="L3" s="224"/>
+      <c r="M3" s="224">
+        <v>1</v>
+      </c>
+      <c r="N3" s="224"/>
+      <c r="O3" s="224"/>
+    </row>
+    <row r="4" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="182"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="218"/>
+      <c r="F4" s="218"/>
+      <c r="G4" s="215"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="224"/>
+      <c r="L4" s="224"/>
+      <c r="M4" s="224"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="224"/>
+    </row>
+    <row r="5" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="182"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="221"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224">
+        <v>2</v>
+      </c>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="224"/>
+    </row>
+    <row r="6" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="182"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="215"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="222"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="224"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="224"/>
+      <c r="N6" s="224"/>
+      <c r="O6" s="224"/>
+    </row>
+    <row r="7" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="220"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="223"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="224">
+        <v>3</v>
+      </c>
+      <c r="K7" s="224">
+        <v>5</v>
+      </c>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="224">
+        <v>4</v>
+      </c>
+      <c r="O7" s="224"/>
+    </row>
+    <row r="8" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I8" s="224">
+        <v>4</v>
+      </c>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="199"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="X9" s="203"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="204"/>
+      <c r="AA9" s="204"/>
+      <c r="AB9" s="204"/>
+      <c r="AC9" s="204"/>
+      <c r="AD9" s="205"/>
+      <c r="AE9" s="197"/>
+      <c r="AF9" s="197"/>
+    </row>
+    <row r="10" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="225"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="227"/>
+      <c r="I10" s="182"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="182"/>
+      <c r="X10" s="206"/>
+      <c r="Y10" s="152"/>
+      <c r="Z10" s="152"/>
+      <c r="AA10" s="152"/>
+      <c r="AB10" s="152"/>
+      <c r="AC10" s="152"/>
+      <c r="AD10" s="207"/>
+      <c r="AE10" s="197"/>
+      <c r="AF10" s="197"/>
+    </row>
+    <row r="11" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="228"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="230"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="182"/>
+      <c r="X11" s="206"/>
+      <c r="Y11" s="152"/>
+      <c r="Z11" s="152"/>
+      <c r="AA11" s="152"/>
+      <c r="AB11" s="152"/>
+      <c r="AC11" s="152"/>
+      <c r="AD11" s="207"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+    </row>
+    <row r="12" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="228"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="229"/>
+      <c r="G12" s="230"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="201"/>
+      <c r="X12" s="206"/>
+      <c r="Y12" s="152"/>
+      <c r="Z12" s="152"/>
+      <c r="AA12" s="152"/>
+      <c r="AB12" s="152"/>
+      <c r="AC12" s="152"/>
+      <c r="AD12" s="207"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+    </row>
+    <row r="13" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="229"/>
+      <c r="G13" s="230"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="201"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="X13" s="206"/>
+      <c r="Y13" s="152"/>
+      <c r="Z13" s="152"/>
+      <c r="AA13" s="152"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="152"/>
+      <c r="AD13" s="207"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="197"/>
+    </row>
+    <row r="14" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="228"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="229"/>
+      <c r="G14" s="230"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="199"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="201"/>
+      <c r="O14" s="182"/>
+      <c r="X14" s="206"/>
+      <c r="Y14" s="152"/>
+      <c r="Z14" s="152"/>
+      <c r="AA14" s="152"/>
+      <c r="AB14" s="152"/>
+      <c r="AC14" s="152"/>
+      <c r="AD14" s="207"/>
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="197"/>
+    </row>
+    <row r="15" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="231"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="233"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="182"/>
+      <c r="X15" s="208"/>
+      <c r="Y15" s="209"/>
+      <c r="Z15" s="209"/>
+      <c r="AA15" s="209"/>
+      <c r="AB15" s="209"/>
+      <c r="AC15" s="209"/>
+      <c r="AD15" s="210"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="197"/>
+    </row>
+    <row r="16" spans="1:32" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="197"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="197"/>
+    </row>
+    <row r="17" spans="24:32" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X17" s="197"/>
+      <c r="Y17" s="197"/>
+      <c r="Z17" s="197"/>
+      <c r="AA17" s="197"/>
+      <c r="AB17" s="197"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="197"/>
+      <c r="AE17" s="197"/>
+      <c r="AF17" s="197"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/making/example.xlsx
+++ b/making/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoue\study\TeX\Graduation_Thesis\making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B183A6F-D6F2-4363-9E39-1320C008170D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93380347-7856-49DF-B355-958E5FDCEE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="6" r:id="rId1"/>
@@ -115,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="159">
+  <borders count="161">
     <border>
       <left/>
       <right/>
@@ -2279,13 +2279,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2877,9 +2905,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2986,6 +3011,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4981,28 +5012,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
+      <c r="C2" s="213"/>
       <c r="D2" s="152"/>
-    </row>
-    <row r="3" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E2" s="152"/>
+    </row>
+    <row r="3" spans="2:5" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
+      <c r="C3" s="210"/>
       <c r="D3" s="152"/>
-    </row>
-    <row r="4" spans="2:4" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E3" s="152"/>
+    </row>
+    <row r="4" spans="2:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="152"/>
       <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="233"/>
+    </row>
+    <row r="5" spans="2:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5155,318 +5195,283 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="I9" sqref="I9:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-    </row>
-    <row r="2" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+    </row>
+    <row r="2" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="182"/>
-      <c r="B2" s="202"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="216"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="224"/>
-      <c r="M2" s="224">
-        <v>3</v>
-      </c>
-      <c r="N2" s="224">
-        <v>2</v>
-      </c>
-      <c r="O2" s="224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="201"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="215"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="223"/>
+      <c r="L2" s="223"/>
+      <c r="M2" s="223">
+        <v>3</v>
+      </c>
+      <c r="N2" s="223">
+        <v>2</v>
+      </c>
+      <c r="O2" s="223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="182"/>
-      <c r="B3" s="217"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="217"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
-      <c r="L3" s="224"/>
-      <c r="M3" s="224">
-        <v>1</v>
-      </c>
-      <c r="N3" s="224"/>
-      <c r="O3" s="224"/>
-    </row>
-    <row r="4" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="216"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="216"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223">
+        <v>1</v>
+      </c>
+      <c r="N3" s="223"/>
+      <c r="O3" s="223"/>
+    </row>
+    <row r="4" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="182"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="218"/>
-      <c r="F4" s="218"/>
-      <c r="G4" s="215"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="224"/>
-      <c r="K4" s="224"/>
-      <c r="L4" s="224"/>
-      <c r="M4" s="224"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="224"/>
-    </row>
-    <row r="5" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="216"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="214"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="223"/>
+    </row>
+    <row r="5" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="182"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="221"/>
-      <c r="I5" s="224"/>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224">
-        <v>2</v>
-      </c>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="224"/>
-    </row>
-    <row r="6" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="216"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="220"/>
+      <c r="I5" s="223"/>
+      <c r="J5" s="223"/>
+      <c r="K5" s="223">
+        <v>2</v>
+      </c>
+      <c r="L5" s="223"/>
+      <c r="M5" s="223"/>
+      <c r="N5" s="223"/>
+      <c r="O5" s="223"/>
+    </row>
+    <row r="6" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="182"/>
-      <c r="B6" s="219"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="218"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="222"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="224"/>
-      <c r="O6" s="224"/>
-    </row>
-    <row r="7" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="220"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="218"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="223"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224">
-        <v>3</v>
-      </c>
-      <c r="K7" s="224">
+      <c r="B6" s="218"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="217"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="221"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+    </row>
+    <row r="7" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="219"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="222"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="223">
+        <v>3</v>
+      </c>
+      <c r="K7" s="223">
         <v>5</v>
       </c>
-      <c r="L7" s="224"/>
-      <c r="M7" s="224"/>
-      <c r="N7" s="224">
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223">
         <v>4</v>
       </c>
-      <c r="O7" s="224"/>
-    </row>
-    <row r="8" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I8" s="224">
+      <c r="O7" s="223"/>
+    </row>
+    <row r="8" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I8" s="223">
         <v>4</v>
       </c>
-      <c r="J8" s="224"/>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224">
+      <c r="J8" s="223"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="223"/>
+      <c r="O8" s="223">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J9" s="199"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="X9" s="203"/>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="204"/>
-      <c r="AA9" s="204"/>
-      <c r="AB9" s="204"/>
-      <c r="AC9" s="204"/>
-      <c r="AD9" s="205"/>
-      <c r="AE9" s="197"/>
-      <c r="AF9" s="197"/>
-    </row>
-    <row r="10" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="225"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="227"/>
+    <row r="9" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="198"/>
+      <c r="X9" s="202"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="203"/>
+      <c r="AA9" s="203"/>
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="204"/>
+    </row>
+    <row r="10" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="224"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="226"/>
       <c r="I10" s="182"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="198"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
+      <c r="M10" s="197"/>
       <c r="N10" s="182"/>
       <c r="O10" s="182"/>
-      <c r="X10" s="206"/>
+      <c r="X10" s="205"/>
       <c r="Y10" s="152"/>
       <c r="Z10" s="152"/>
       <c r="AA10" s="152"/>
       <c r="AB10" s="152"/>
       <c r="AC10" s="152"/>
-      <c r="AD10" s="207"/>
-      <c r="AE10" s="197"/>
-      <c r="AF10" s="197"/>
-    </row>
-    <row r="11" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="228"/>
-      <c r="C11" s="229"/>
-      <c r="D11" s="229"/>
-      <c r="E11" s="229"/>
-      <c r="F11" s="229"/>
-      <c r="G11" s="230"/>
+      <c r="AD10" s="206"/>
+    </row>
+    <row r="11" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="227"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="228"/>
+      <c r="F11" s="228"/>
+      <c r="G11" s="229"/>
       <c r="I11" s="182"/>
       <c r="J11" s="182"/>
-      <c r="L11" s="199"/>
-      <c r="M11" s="199"/>
-      <c r="N11" s="201"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="198"/>
+      <c r="N11" s="200"/>
       <c r="O11" s="182"/>
-      <c r="X11" s="206"/>
+      <c r="X11" s="205"/>
       <c r="Y11" s="152"/>
       <c r="Z11" s="152"/>
       <c r="AA11" s="152"/>
       <c r="AB11" s="152"/>
       <c r="AC11" s="152"/>
-      <c r="AD11" s="207"/>
-      <c r="AE11" s="197"/>
-      <c r="AF11" s="197"/>
-    </row>
-    <row r="12" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="228"/>
-      <c r="C12" s="229"/>
-      <c r="D12" s="229"/>
-      <c r="E12" s="229"/>
-      <c r="F12" s="229"/>
-      <c r="G12" s="230"/>
+      <c r="AD11" s="206"/>
+    </row>
+    <row r="12" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="227"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="229"/>
       <c r="I12" s="182"/>
       <c r="J12" s="182"/>
       <c r="K12" s="182"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="199"/>
-      <c r="O12" s="201"/>
-      <c r="X12" s="206"/>
+      <c r="M12" s="198"/>
+      <c r="N12" s="198"/>
+      <c r="O12" s="200"/>
+      <c r="X12" s="205"/>
       <c r="Y12" s="152"/>
       <c r="Z12" s="152"/>
       <c r="AA12" s="152"/>
       <c r="AB12" s="152"/>
       <c r="AC12" s="152"/>
-      <c r="AD12" s="207"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="197"/>
-    </row>
-    <row r="13" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="229"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="229"/>
-      <c r="G13" s="230"/>
+      <c r="AD12" s="206"/>
+    </row>
+    <row r="13" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="227"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="228"/>
+      <c r="F13" s="228"/>
+      <c r="G13" s="229"/>
       <c r="I13" s="182"/>
       <c r="J13" s="182"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="201"/>
-      <c r="N13" s="198"/>
-      <c r="O13" s="198"/>
-      <c r="X13" s="206"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="200"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="X13" s="205"/>
       <c r="Y13" s="152"/>
       <c r="Z13" s="152"/>
       <c r="AA13" s="152"/>
       <c r="AB13" s="152"/>
       <c r="AC13" s="152"/>
-      <c r="AD13" s="207"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="197"/>
-    </row>
-    <row r="14" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="228"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="230"/>
+      <c r="AD13" s="206"/>
+    </row>
+    <row r="14" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="227"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="228"/>
+      <c r="F14" s="228"/>
+      <c r="G14" s="229"/>
       <c r="I14" s="182"/>
-      <c r="J14" s="199"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="201"/>
+      <c r="J14" s="198"/>
+      <c r="L14" s="197"/>
+      <c r="M14" s="200"/>
       <c r="O14" s="182"/>
-      <c r="X14" s="206"/>
+      <c r="X14" s="205"/>
       <c r="Y14" s="152"/>
       <c r="Z14" s="152"/>
       <c r="AA14" s="152"/>
       <c r="AB14" s="152"/>
       <c r="AC14" s="152"/>
-      <c r="AD14" s="207"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="197"/>
-    </row>
-    <row r="15" spans="1:32" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="231"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="233"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="199"/>
-      <c r="L15" s="199"/>
-      <c r="M15" s="199"/>
-      <c r="N15" s="201"/>
+      <c r="AD14" s="206"/>
+    </row>
+    <row r="15" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="230"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="232"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="200"/>
       <c r="O15" s="182"/>
-      <c r="X15" s="208"/>
-      <c r="Y15" s="209"/>
-      <c r="Z15" s="209"/>
-      <c r="AA15" s="209"/>
-      <c r="AB15" s="209"/>
-      <c r="AC15" s="209"/>
-      <c r="AD15" s="210"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="197"/>
-    </row>
-    <row r="16" spans="1:32" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="197"/>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="197"/>
-    </row>
-    <row r="17" spans="24:32" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X17" s="197"/>
-      <c r="Y17" s="197"/>
-      <c r="Z17" s="197"/>
-      <c r="AA17" s="197"/>
-      <c r="AB17" s="197"/>
-      <c r="AC17" s="197"/>
-      <c r="AD17" s="197"/>
-      <c r="AE17" s="197"/>
-      <c r="AF17" s="197"/>
-    </row>
+      <c r="X15" s="207"/>
+      <c r="Y15" s="208"/>
+      <c r="Z15" s="208"/>
+      <c r="AA15" s="208"/>
+      <c r="AB15" s="208"/>
+      <c r="AC15" s="208"/>
+      <c r="AD15" s="209"/>
+    </row>
+    <row r="16" spans="1:30" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/making/example.xlsx
+++ b/making/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoue\study\TeX\Graduation_Thesis\making\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itk_m\作業\研究室\Graduation_Thesis\making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93380347-7856-49DF-B355-958E5FDCEE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE230D-B721-417E-84CD-2BAF0E127776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Board" sheetId="3" r:id="rId5"/>
     <sheet name="NewPuzzle" sheetId="8" r:id="rId6"/>
     <sheet name="NumberLink" sheetId="9" r:id="rId7"/>
+    <sheet name="cross, cycle" sheetId="11" r:id="rId8"/>
+    <sheet name="Replace" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -115,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="161">
+  <borders count="187">
     <border>
       <left/>
       <right/>
@@ -2307,13 +2309,355 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3017,6 +3361,84 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5014,8 +5436,8 @@
   </sheetPr>
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5478,4 +5900,184 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157DBA56-D01B-4A0A-B0AE-E09C8C64E820}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:J5"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="152"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="152"/>
+    </row>
+    <row r="3" spans="2:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="152"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="152"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="233"/>
+    </row>
+    <row r="4" spans="2:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="152"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="233"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="240"/>
+      <c r="J4" s="233"/>
+    </row>
+    <row r="5" spans="2:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="152"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFC07D8-D7ED-493F-B8FC-AAA122C75598}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+    </row>
+    <row r="2" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="253"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="236"/>
+      <c r="K2" s="260"/>
+      <c r="N2" s="236"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="204"/>
+    </row>
+    <row r="3" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="248"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="255"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="206"/>
+    </row>
+    <row r="4" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="205"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="249"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="206"/>
+    </row>
+    <row r="5" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="182"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="259"/>
+      <c r="I5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="N5" s="198"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
+      <c r="W5" s="206"/>
+    </row>
+    <row r="6" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="182"/>
+      <c r="B6" s="257"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="258"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="236"/>
+      <c r="M6" s="200"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="206"/>
+    </row>
+    <row r="7" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R7" s="207"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="209"/>
+    </row>
+    <row r="8" spans="1:23" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/making/example.xlsx
+++ b/making/example.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itk_m\作業\研究室\Graduation_Thesis\making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE230D-B721-417E-84CD-2BAF0E127776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90861685-E46D-4B54-8C4C-325903E2EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Master" sheetId="6" r:id="rId1"/>
-    <sheet name="Material" sheetId="1" r:id="rId2"/>
-    <sheet name="スリザーリンク" sheetId="2" r:id="rId3"/>
-    <sheet name="SamplePuzzle" sheetId="5" r:id="rId4"/>
-    <sheet name="Board" sheetId="3" r:id="rId5"/>
-    <sheet name="NewPuzzle" sheetId="8" r:id="rId6"/>
-    <sheet name="NumberLink" sheetId="9" r:id="rId7"/>
-    <sheet name="cross, cycle" sheetId="11" r:id="rId8"/>
-    <sheet name="Replace" sheetId="12" r:id="rId9"/>
+    <sheet name="HIExample" sheetId="13" r:id="rId1"/>
+    <sheet name="Master" sheetId="6" r:id="rId2"/>
+    <sheet name="Material" sheetId="1" r:id="rId3"/>
+    <sheet name="スリザーリンク" sheetId="2" r:id="rId4"/>
+    <sheet name="SamplePuzzle" sheetId="5" r:id="rId5"/>
+    <sheet name="Board" sheetId="3" r:id="rId6"/>
+    <sheet name="NewPuzzle" sheetId="8" r:id="rId7"/>
+    <sheet name="NumberLink" sheetId="9" r:id="rId8"/>
+    <sheet name="cross, cycle" sheetId="11" r:id="rId9"/>
+    <sheet name="Replace" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -117,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="187">
+  <borders count="196">
     <border>
       <left/>
       <right/>
@@ -2651,13 +2652,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3440,6 +3568,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3759,6 +3944,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C8111-43CE-4832-A8E0-88D9AB158544}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="198"/>
+      <c r="H1" s="269"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+    </row>
+    <row r="2" spans="1:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="266">
+        <v>2</v>
+      </c>
+      <c r="C2" s="262">
+        <v>3</v>
+      </c>
+      <c r="D2" s="263">
+        <v>2</v>
+      </c>
+      <c r="G2" s="270">
+        <v>2</v>
+      </c>
+      <c r="H2" s="271">
+        <v>3</v>
+      </c>
+      <c r="I2" s="272">
+        <v>2</v>
+      </c>
+      <c r="K2" s="182"/>
+      <c r="L2" s="279">
+        <v>2</v>
+      </c>
+      <c r="M2" s="278">
+        <v>3</v>
+      </c>
+      <c r="N2" s="263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="182"/>
+      <c r="B3" s="261">
+        <v>2</v>
+      </c>
+      <c r="C3" s="186">
+        <v>1</v>
+      </c>
+      <c r="D3" s="265">
+        <v>3</v>
+      </c>
+      <c r="F3" s="269"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="153">
+        <v>1</v>
+      </c>
+      <c r="I3" s="274">
+        <v>3</v>
+      </c>
+      <c r="K3" s="182"/>
+      <c r="L3" s="261">
+        <v>1</v>
+      </c>
+      <c r="M3" s="186">
+        <v>1</v>
+      </c>
+      <c r="N3" s="265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="182"/>
+      <c r="B4" s="268">
+        <v>3</v>
+      </c>
+      <c r="C4" s="267">
+        <v>2</v>
+      </c>
+      <c r="D4" s="264">
+        <v>1</v>
+      </c>
+      <c r="F4" s="269"/>
+      <c r="G4" s="275">
+        <v>3</v>
+      </c>
+      <c r="H4" s="276">
+        <v>2</v>
+      </c>
+      <c r="I4" s="277">
+        <v>1</v>
+      </c>
+      <c r="K4" s="182"/>
+      <c r="L4" s="268">
+        <v>3</v>
+      </c>
+      <c r="M4" s="267">
+        <v>2</v>
+      </c>
+      <c r="N4" s="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFC07D8-D7ED-493F-B8FC-AAA122C75598}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W8"/>
+  <sheetViews>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+    </row>
+    <row r="2" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="253"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="236"/>
+      <c r="K2" s="260"/>
+      <c r="N2" s="236"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="204"/>
+    </row>
+    <row r="3" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="248"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="255"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="206"/>
+    </row>
+    <row r="4" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="205"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="249"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="206"/>
+    </row>
+    <row r="5" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="182"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="259"/>
+      <c r="I5" s="182"/>
+      <c r="L5" s="182"/>
+      <c r="N5" s="198"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
+      <c r="W5" s="206"/>
+    </row>
+    <row r="6" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="182"/>
+      <c r="B6" s="257"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="258"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="199"/>
+      <c r="K6" s="236"/>
+      <c r="M6" s="200"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="206"/>
+    </row>
+    <row r="7" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="R7" s="207"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="209"/>
+    </row>
+    <row r="8" spans="1:23" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D06153-AAC2-494B-ADE5-1540EF5EA646}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3778,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E97C6FA-6983-4853-80D1-1E87D98A89B3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3786,7 +4210,7 @@
   <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4663,7 +5087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D4034D-179E-4828-940E-8F7DEFA5FE34}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4958,7 +5382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B4F946-DD11-4D86-9D88-060761721B51}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4966,7 +5390,7 @@
   <dimension ref="B1:V11"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:V11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5429,7 +5853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F8BDA1-9D57-4910-A7D7-D3C9EDD82356}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5474,7 +5898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC57C7EE-80C4-49E2-9EC3-00EE64D4A185}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5612,7 +6036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E18A180-6CAE-41F7-A445-04FC90C254EE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5620,7 +6044,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:P16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5902,7 +6326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157DBA56-D01B-4A0A-B0AE-E09C8C64E820}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5961,123 +6385,4 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFC07D8-D7ED-493F-B8FC-AAA122C75598}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:W8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:23" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-    </row>
-    <row r="2" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="236"/>
-      <c r="K2" s="260"/>
-      <c r="N2" s="236"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="204"/>
-    </row>
-    <row r="3" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="248"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="255"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="206"/>
-    </row>
-    <row r="4" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="249"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="206"/>
-    </row>
-    <row r="5" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="182"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="259"/>
-      <c r="I5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="N5" s="198"/>
-      <c r="R5" s="205"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="206"/>
-    </row>
-    <row r="6" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="182"/>
-      <c r="B6" s="257"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="258"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="236"/>
-      <c r="M6" s="200"/>
-      <c r="R6" s="205"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="206"/>
-    </row>
-    <row r="7" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="R7" s="207"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="208"/>
-      <c r="U7" s="208"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="209"/>
-    </row>
-    <row r="8" spans="1:23" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/making/example.xlsx
+++ b/making/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itk_m\作業\研究室\Graduation_Thesis\making\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoue\study\TeX\Graduation_Thesis\making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90861685-E46D-4B54-8C4C-325903E2EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6EDE6-4C2F-468A-BA85-7F7D76BD7186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="HIExample" sheetId="13" r:id="rId1"/>
@@ -118,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="196">
+  <borders count="280">
     <border>
       <left/>
       <right/>
@@ -1152,55 +1152,154 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FFFFC000"/>
       </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FFFFC000"/>
       </right>
       <top style="thick">
         <color rgb="FFFFC000"/>
       </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
       <bottom style="thick">
         <color rgb="FFFFC000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
+      <left style="thick">
+        <color rgb="FFFFC000"/>
       </left>
       <right style="thick">
         <color rgb="FFFFC000"/>
       </right>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
+      <top style="dotted">
+        <color indexed="64"/>
       </top>
       <bottom style="thick">
         <color rgb="FFFFC000"/>
@@ -1208,80 +1307,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="dotted">
         <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFC000"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFC000"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFC000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFFC000"/>
       </right>
       <top/>
       <bottom style="thick">
@@ -1290,93 +1318,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FFFFC000"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color rgb="FFFFC000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFC000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFC000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFFC000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFC000"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFC000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFFC000"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="dotted">
         <color indexed="64"/>
       </right>
@@ -1387,234 +1331,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1750,7 +1487,22 @@
     </border>
     <border>
       <left style="thick">
-        <color theme="5"/>
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
       </left>
       <right style="hair">
         <color theme="1"/>
@@ -1764,176 +1516,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
-        <color rgb="FF00C49A"/>
+        <color theme="5"/>
       </left>
       <right style="thick">
         <color theme="5"/>
       </right>
       <top style="thick">
-        <color theme="5"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00C49A"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="thick">
-        <color theme="5"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00C49A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="5"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00C49A"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="5"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00C49A"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2779,13 +2385,1505 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00C49A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00C49A"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00C49A"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00C49A"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="381">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3074,30 +4172,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3113,12 +4211,225 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3128,502 +4439,592 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="159" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="160" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="162" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="161" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="163" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="164" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="134" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="137" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="179" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="181" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="186" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="197" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="198" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="199" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="202" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="203" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="206" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="207" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="208" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="209" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="210" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="211" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="212" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="213" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="214" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="215" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="216" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="152" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="217" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="218" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="219" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="220" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="221" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="222" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="223" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="224" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="225" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="226" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="227" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="228" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="154" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="150" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="229" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="217" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="230" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="231" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="151" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="153" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="232" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="233" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="221" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="234" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="235" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="236" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="237" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="238" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="239" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="240" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="241" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="157" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="242" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="243" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="244" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="245" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="246" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="247" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="248" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="249" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="250" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="251" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="252" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="254" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="253" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="256" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="255" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="257" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="258" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="259" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="260" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="261" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="262" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="263" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="264" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="266" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="267" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="147" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="268" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="269" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="270" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="271" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="273" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="272" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="274" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="135" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="136" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="144" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="145" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="146" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="147" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="149" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="150" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="151" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="152" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="153" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="154" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="156" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="157" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="276" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="275" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="277" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="278" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="279" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3950,107 +5351,104 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="198"/>
-      <c r="H1" s="269"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
+      <c r="C1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="266">
-        <v>2</v>
-      </c>
-      <c r="C2" s="262">
-        <v>3</v>
-      </c>
-      <c r="D2" s="263">
-        <v>2</v>
-      </c>
-      <c r="G2" s="270">
-        <v>2</v>
-      </c>
-      <c r="H2" s="271">
-        <v>3</v>
-      </c>
-      <c r="I2" s="272">
-        <v>2</v>
-      </c>
-      <c r="K2" s="182"/>
-      <c r="L2" s="279">
-        <v>2</v>
-      </c>
-      <c r="M2" s="278">
-        <v>3</v>
-      </c>
-      <c r="N2" s="263">
+      <c r="B2" s="224">
+        <v>2</v>
+      </c>
+      <c r="C2" s="220">
+        <v>3</v>
+      </c>
+      <c r="D2" s="221">
+        <v>2</v>
+      </c>
+      <c r="G2" s="227">
+        <v>2</v>
+      </c>
+      <c r="H2" s="228">
+        <v>3</v>
+      </c>
+      <c r="I2" s="229">
+        <v>2</v>
+      </c>
+      <c r="K2" s="150"/>
+      <c r="L2" s="236">
+        <v>2</v>
+      </c>
+      <c r="M2" s="235">
+        <v>3</v>
+      </c>
+      <c r="N2" s="221">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="182"/>
-      <c r="B3" s="261">
-        <v>2</v>
-      </c>
-      <c r="C3" s="186">
-        <v>1</v>
-      </c>
-      <c r="D3" s="265">
-        <v>3</v>
-      </c>
-      <c r="F3" s="269"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="153">
-        <v>1</v>
-      </c>
-      <c r="I3" s="274">
-        <v>3</v>
-      </c>
-      <c r="K3" s="182"/>
-      <c r="L3" s="261">
-        <v>1</v>
-      </c>
-      <c r="M3" s="186">
-        <v>1</v>
-      </c>
-      <c r="N3" s="265">
+      <c r="A3" s="150"/>
+      <c r="B3" s="219">
+        <v>2</v>
+      </c>
+      <c r="C3" s="152">
+        <v>1</v>
+      </c>
+      <c r="D3" s="223">
+        <v>3</v>
+      </c>
+      <c r="G3" s="230"/>
+      <c r="H3" s="147">
+        <v>1</v>
+      </c>
+      <c r="I3" s="231">
+        <v>3</v>
+      </c>
+      <c r="K3" s="150"/>
+      <c r="L3" s="219">
+        <v>1</v>
+      </c>
+      <c r="M3" s="152">
+        <v>1</v>
+      </c>
+      <c r="N3" s="223">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="182"/>
-      <c r="B4" s="268">
-        <v>3</v>
-      </c>
-      <c r="C4" s="267">
-        <v>2</v>
-      </c>
-      <c r="D4" s="264">
-        <v>1</v>
-      </c>
-      <c r="F4" s="269"/>
-      <c r="G4" s="275">
-        <v>3</v>
-      </c>
-      <c r="H4" s="276">
-        <v>2</v>
-      </c>
-      <c r="I4" s="277">
-        <v>1</v>
-      </c>
-      <c r="K4" s="182"/>
-      <c r="L4" s="268">
-        <v>3</v>
-      </c>
-      <c r="M4" s="267">
-        <v>2</v>
-      </c>
-      <c r="N4" s="264">
+      <c r="A4" s="150"/>
+      <c r="B4" s="226">
+        <v>3</v>
+      </c>
+      <c r="C4" s="225">
+        <v>2</v>
+      </c>
+      <c r="D4" s="222">
+        <v>1</v>
+      </c>
+      <c r="G4" s="232">
+        <v>3</v>
+      </c>
+      <c r="H4" s="233">
+        <v>2</v>
+      </c>
+      <c r="I4" s="234">
+        <v>1</v>
+      </c>
+      <c r="K4" s="150"/>
+      <c r="L4" s="226">
+        <v>3</v>
+      </c>
+      <c r="M4" s="225">
+        <v>2</v>
+      </c>
+      <c r="N4" s="222">
         <v>1</v>
       </c>
     </row>
@@ -4077,101 +5475,101 @@
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:23" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
     </row>
     <row r="2" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="236"/>
-      <c r="K2" s="260"/>
-      <c r="N2" s="236"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="204"/>
+      <c r="B2" s="211"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="194"/>
+      <c r="K2" s="218"/>
+      <c r="N2" s="194"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="162"/>
     </row>
     <row r="3" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="248"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="255"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="206"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="213"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="164"/>
     </row>
     <row r="4" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="249"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="206"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="207"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="164"/>
     </row>
     <row r="5" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="182"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="259"/>
-      <c r="I5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="N5" s="198"/>
-      <c r="R5" s="205"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="206"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="217"/>
+      <c r="I5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="N5" s="156"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="164"/>
     </row>
     <row r="6" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="182"/>
-      <c r="B6" s="257"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="258"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="236"/>
-      <c r="M6" s="200"/>
-      <c r="R6" s="205"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="206"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="216"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="194"/>
+      <c r="M6" s="158"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="164"/>
     </row>
     <row r="7" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="R7" s="207"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="208"/>
-      <c r="U7" s="208"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="209"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="167"/>
     </row>
     <row r="8" spans="1:23" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -4189,7 +5587,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -4210,7 +5608,7 @@
   <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B19" sqref="B19:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5009,9 +6407,9 @@
       <c r="B19" s="93"/>
       <c r="C19" s="95"/>
       <c r="D19" s="94"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
       <c r="H19" s="93"/>
       <c r="AE19" s="81"/>
       <c r="AF19" s="81"/>
@@ -5027,53 +6425,53 @@
     </row>
     <row r="20" spans="2:41" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="93"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="245"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
       <c r="G20" s="97"/>
       <c r="H20" s="93"/>
     </row>
     <row r="21" spans="2:41" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="93"/>
-      <c r="C21" s="100"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="92"/>
-      <c r="E21" s="99"/>
+      <c r="E21" s="247"/>
       <c r="F21" s="91"/>
       <c r="G21" s="93"/>
-      <c r="H21" s="103"/>
+      <c r="H21" s="101"/>
     </row>
     <row r="22" spans="2:41" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="95"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="107"/>
     </row>
     <row r="23" spans="2:41" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="93"/>
-      <c r="C23" s="107"/>
+      <c r="C23" s="250"/>
       <c r="D23" s="91"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="113"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="108"/>
       <c r="H23" s="97"/>
     </row>
     <row r="24" spans="2:41" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B24" s="96"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="94"/>
       <c r="F24" s="97"/>
-      <c r="G24" s="104"/>
+      <c r="G24" s="102"/>
       <c r="H24" s="94"/>
     </row>
     <row r="25" spans="2:41" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="96"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="101"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="99"/>
       <c r="E25" s="94"/>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
@@ -5092,284 +6490,714 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="L3:S18"/>
+  <dimension ref="L2:AL18"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="7.875" style="114"/>
+    <col min="1" max="16384" width="7.875" style="109"/>
   </cols>
   <sheetData>
-    <row r="3" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M4" s="116"/>
-      <c r="N4" s="117">
+    <row r="2" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+    </row>
+    <row r="3" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q3" s="347"/>
+      <c r="R3" s="347"/>
+      <c r="W3" s="111">
         <v>0</v>
       </c>
-      <c r="O4" s="117">
-        <v>2</v>
-      </c>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117">
-        <v>1</v>
-      </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M5" s="124"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="131"/>
-    </row>
-    <row r="6" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M6" s="124"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130">
-        <v>3</v>
-      </c>
-      <c r="S6" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M7" s="124">
-        <v>3</v>
-      </c>
-      <c r="N7" s="130">
+      <c r="X3" s="112">
         <v>0</v>
       </c>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130">
-        <v>3</v>
-      </c>
-      <c r="S7" s="131">
+      <c r="Y3" s="113">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="350">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="114">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="116">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="117">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="111">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M8" s="124">
-        <v>3</v>
-      </c>
-      <c r="N8" s="130">
-        <v>1</v>
-      </c>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="131"/>
-    </row>
-    <row r="9" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M9" s="124"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="131"/>
-    </row>
-    <row r="10" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M10" s="150">
-        <v>3</v>
-      </c>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148">
-        <v>3</v>
-      </c>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148">
+      <c r="AG3" s="112">
         <v>0</v>
       </c>
-      <c r="R10" s="148">
-        <v>2</v>
-      </c>
-      <c r="S10" s="151"/>
-    </row>
-    <row r="11" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="115"/>
-    </row>
-    <row r="12" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M12" s="116">
+      <c r="AH3" s="252">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="114">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="115">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="116">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M4" s="111"/>
+      <c r="N4" s="112">
         <v>0</v>
       </c>
-      <c r="N12" s="117">
+      <c r="O4" s="112">
+        <v>2</v>
+      </c>
+      <c r="P4" s="339"/>
+      <c r="Q4" s="348">
+        <v>1</v>
+      </c>
+      <c r="R4" s="349"/>
+      <c r="S4" s="341">
+        <v>3</v>
+      </c>
+      <c r="W4" s="118">
         <v>0</v>
       </c>
-      <c r="O12" s="118">
-        <v>2</v>
-      </c>
-      <c r="P12" s="119">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="120">
-        <v>1</v>
-      </c>
-      <c r="R12" s="121">
-        <v>2</v>
-      </c>
-      <c r="S12" s="122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M13" s="124">
+      <c r="X4" s="119">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="114">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="352">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="351">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="122">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="123">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="118">
         <v>0</v>
       </c>
-      <c r="N13" s="125">
-        <v>2</v>
-      </c>
-      <c r="O13" s="119">
-        <v>2</v>
-      </c>
-      <c r="P13" s="126">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="127">
-        <v>1</v>
-      </c>
-      <c r="R13" s="128">
-        <v>3</v>
-      </c>
-      <c r="S13" s="129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M14" s="132">
-        <v>2</v>
-      </c>
-      <c r="N14" s="119">
-        <v>2</v>
-      </c>
-      <c r="O14" s="127">
-        <v>1</v>
-      </c>
-      <c r="P14" s="133">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="134">
-        <v>1</v>
-      </c>
-      <c r="R14" s="135">
-        <v>3</v>
-      </c>
-      <c r="S14" s="136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L15" s="137"/>
-      <c r="M15" s="138">
-        <v>3</v>
-      </c>
-      <c r="N15" s="130">
+      <c r="AG4" s="255"/>
+      <c r="AH4" s="256"/>
+      <c r="AI4" s="257">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="255"/>
+      <c r="AK4" s="256">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M5" s="118"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="340"/>
+      <c r="Q5" s="342"/>
+      <c r="R5" s="343"/>
+      <c r="S5" s="130"/>
+      <c r="W5" s="126">
+        <v>2</v>
+      </c>
+      <c r="X5" s="114">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="121">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="127">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="128">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="129">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="130">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="253">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="258"/>
+      <c r="AH5" s="283"/>
+      <c r="AI5" s="279">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="266"/>
+      <c r="AK5" s="259">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M6" s="118"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="340">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="342"/>
+      <c r="R6" s="343">
+        <v>3</v>
+      </c>
+      <c r="S6" s="130">
+        <v>1</v>
+      </c>
+      <c r="V6" s="131"/>
+      <c r="W6" s="132">
+        <v>3</v>
+      </c>
+      <c r="X6" s="124">
         <v>0</v>
       </c>
-      <c r="O15" s="127">
-        <v>1</v>
-      </c>
-      <c r="P15" s="139">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="139">
-        <v>2</v>
-      </c>
-      <c r="R15" s="128">
-        <v>3</v>
-      </c>
-      <c r="S15" s="131">
+      <c r="Y6" s="121">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="133">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="133">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="122">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="125">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M16" s="140">
-        <v>3</v>
-      </c>
-      <c r="N16" s="134">
-        <v>1</v>
-      </c>
-      <c r="O16" s="127">
-        <v>1</v>
-      </c>
-      <c r="P16" s="139">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="141">
-        <v>2</v>
-      </c>
-      <c r="R16" s="142">
-        <v>2</v>
-      </c>
-      <c r="S16" s="143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L17" s="137"/>
-      <c r="M17" s="119">
-        <v>2</v>
-      </c>
-      <c r="N17" s="126">
-        <v>1</v>
-      </c>
-      <c r="O17" s="127">
-        <v>1</v>
-      </c>
-      <c r="P17" s="134">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="144">
-        <v>2</v>
-      </c>
-      <c r="R17" s="141">
-        <v>2</v>
-      </c>
-      <c r="S17" s="142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L18" s="137"/>
-      <c r="M18" s="145">
-        <v>3</v>
-      </c>
-      <c r="N18" s="146">
-        <v>3</v>
-      </c>
-      <c r="O18" s="145">
-        <v>3</v>
-      </c>
-      <c r="P18" s="147">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="148">
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="254">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="265">
         <v>0</v>
       </c>
-      <c r="R18" s="149">
-        <v>2</v>
-      </c>
-      <c r="S18" s="145">
+      <c r="AH6" s="263"/>
+      <c r="AI6" s="264"/>
+      <c r="AJ6" s="267"/>
+      <c r="AK6" s="260">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M7" s="118">
+        <v>3</v>
+      </c>
+      <c r="N7" s="124">
+        <v>0</v>
+      </c>
+      <c r="O7" s="124"/>
+      <c r="P7" s="340"/>
+      <c r="Q7" s="342"/>
+      <c r="R7" s="343">
+        <v>3</v>
+      </c>
+      <c r="S7" s="130">
+        <v>0</v>
+      </c>
+      <c r="W7" s="134">
+        <v>3</v>
+      </c>
+      <c r="X7" s="128">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="121">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="133">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="135">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="136">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="137">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="280">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="268">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="278"/>
+      <c r="AI7" s="278">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="279">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="269">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M8" s="118">
+        <v>3</v>
+      </c>
+      <c r="N8" s="124">
+        <v>1</v>
+      </c>
+      <c r="O8" s="124"/>
+      <c r="P8" s="340">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="342"/>
+      <c r="R8" s="343"/>
+      <c r="S8" s="130"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="114">
+        <v>2</v>
+      </c>
+      <c r="X8" s="120">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="121">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="354">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="353">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="135">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="136">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="131"/>
+      <c r="AF8" s="261"/>
+      <c r="AG8" s="275"/>
+      <c r="AH8" s="276"/>
+      <c r="AI8" s="277">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="276"/>
+      <c r="AK8" s="264">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M9" s="118"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="340"/>
+      <c r="Q9" s="344"/>
+      <c r="R9" s="345"/>
+      <c r="S9" s="130"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="139">
+        <v>3</v>
+      </c>
+      <c r="X9" s="140">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="139">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="355">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="141">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="143">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="139">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="131"/>
+      <c r="AF9" s="139">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="270">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="271">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="272">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="273"/>
+      <c r="AK9" s="274">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M10" s="144">
+        <v>3</v>
+      </c>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142">
+        <v>3</v>
+      </c>
+      <c r="P10" s="346"/>
+      <c r="Q10" s="272">
+        <v>0</v>
+      </c>
+      <c r="R10" s="273">
+        <v>2</v>
+      </c>
+      <c r="S10" s="145"/>
+    </row>
+    <row r="11" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+    </row>
+    <row r="12" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M12" s="111">
+        <v>0</v>
+      </c>
+      <c r="N12" s="112">
+        <v>0</v>
+      </c>
+      <c r="O12" s="113">
+        <v>2</v>
+      </c>
+      <c r="P12" s="114">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="115">
+        <v>1</v>
+      </c>
+      <c r="R12" s="116">
+        <v>2</v>
+      </c>
+      <c r="S12" s="117">
+        <v>3</v>
+      </c>
+      <c r="V12" s="111">
+        <v>0</v>
+      </c>
+      <c r="W12" s="112">
+        <v>0</v>
+      </c>
+      <c r="X12" s="113">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="114">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="115">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="116">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M13" s="118">
+        <v>0</v>
+      </c>
+      <c r="N13" s="119">
+        <v>2</v>
+      </c>
+      <c r="O13" s="114">
+        <v>2</v>
+      </c>
+      <c r="P13" s="120">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="121">
+        <v>1</v>
+      </c>
+      <c r="R13" s="122">
+        <v>3</v>
+      </c>
+      <c r="S13" s="123">
+        <v>1</v>
+      </c>
+      <c r="V13" s="118">
+        <v>0</v>
+      </c>
+      <c r="W13" s="119">
+        <v>2</v>
+      </c>
+      <c r="X13" s="114">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="120">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="121">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="122">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M14" s="126">
+        <v>2</v>
+      </c>
+      <c r="N14" s="114">
+        <v>2</v>
+      </c>
+      <c r="O14" s="121">
+        <v>1</v>
+      </c>
+      <c r="P14" s="127">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="128">
+        <v>1</v>
+      </c>
+      <c r="R14" s="129">
+        <v>3</v>
+      </c>
+      <c r="S14" s="130">
+        <v>1</v>
+      </c>
+      <c r="V14" s="126">
+        <v>2</v>
+      </c>
+      <c r="W14" s="114">
+        <v>2</v>
+      </c>
+      <c r="X14" s="121">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="127">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="128">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="129">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L15" s="131"/>
+      <c r="M15" s="132">
+        <v>3</v>
+      </c>
+      <c r="N15" s="124">
+        <v>0</v>
+      </c>
+      <c r="O15" s="121">
+        <v>1</v>
+      </c>
+      <c r="P15" s="133">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="133">
+        <v>2</v>
+      </c>
+      <c r="R15" s="122">
+        <v>3</v>
+      </c>
+      <c r="S15" s="125">
+        <v>0</v>
+      </c>
+      <c r="V15" s="132">
+        <v>3</v>
+      </c>
+      <c r="W15" s="124">
+        <v>0</v>
+      </c>
+      <c r="X15" s="121">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="133">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="133">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="122">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M16" s="134">
+        <v>3</v>
+      </c>
+      <c r="N16" s="128">
+        <v>1</v>
+      </c>
+      <c r="O16" s="121">
+        <v>1</v>
+      </c>
+      <c r="P16" s="133">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="135">
+        <v>2</v>
+      </c>
+      <c r="R16" s="136">
+        <v>2</v>
+      </c>
+      <c r="S16" s="137">
+        <v>2</v>
+      </c>
+      <c r="V16" s="134">
+        <v>3</v>
+      </c>
+      <c r="W16" s="128">
+        <v>1</v>
+      </c>
+      <c r="X16" s="121">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="133">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="135">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="136">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:28" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L17" s="131"/>
+      <c r="M17" s="114">
+        <v>2</v>
+      </c>
+      <c r="N17" s="120">
+        <v>1</v>
+      </c>
+      <c r="O17" s="121">
+        <v>1</v>
+      </c>
+      <c r="P17" s="128">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="138">
+        <v>2</v>
+      </c>
+      <c r="R17" s="135">
+        <v>2</v>
+      </c>
+      <c r="S17" s="136">
+        <v>2</v>
+      </c>
+      <c r="V17" s="114">
+        <v>2</v>
+      </c>
+      <c r="W17" s="120">
+        <v>1</v>
+      </c>
+      <c r="X17" s="121">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="128">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="138">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="135">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="12:28" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L18" s="131"/>
+      <c r="M18" s="139">
+        <v>3</v>
+      </c>
+      <c r="N18" s="140">
+        <v>3</v>
+      </c>
+      <c r="O18" s="139">
+        <v>3</v>
+      </c>
+      <c r="P18" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="142">
+        <v>0</v>
+      </c>
+      <c r="R18" s="143">
+        <v>2</v>
+      </c>
+      <c r="S18" s="139">
+        <v>3</v>
+      </c>
+      <c r="V18" s="139">
+        <v>3</v>
+      </c>
+      <c r="W18" s="140">
+        <v>3</v>
+      </c>
+      <c r="X18" s="139">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="141">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="142">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="143">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="139">
         <v>3</v>
       </c>
     </row>
@@ -5390,460 +7218,460 @@
   <dimension ref="B1:V11"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M2" sqref="M2:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-    </row>
-    <row r="2" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="154">
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+    </row>
+    <row r="2" spans="2:22" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="227">
         <v>8</v>
       </c>
-      <c r="C2" s="155">
-        <v>3</v>
-      </c>
-      <c r="D2" s="155">
+      <c r="C2" s="228">
+        <v>3</v>
+      </c>
+      <c r="D2" s="303">
         <v>9</v>
       </c>
-      <c r="E2" s="155">
+      <c r="E2" s="304">
         <v>7</v>
       </c>
-      <c r="F2" s="155">
+      <c r="F2" s="228">
         <v>6</v>
       </c>
-      <c r="G2" s="155">
+      <c r="G2" s="305">
         <v>5</v>
       </c>
-      <c r="H2" s="155">
-        <v>1</v>
-      </c>
-      <c r="I2" s="155">
-        <v>2</v>
-      </c>
-      <c r="J2" s="156">
+      <c r="H2" s="306">
+        <v>1</v>
+      </c>
+      <c r="I2" s="228">
+        <v>2</v>
+      </c>
+      <c r="J2" s="229">
         <v>4</v>
       </c>
-      <c r="L2" s="162"/>
-      <c r="M2" s="163">
+      <c r="L2" s="148"/>
+      <c r="M2" s="319">
         <v>8</v>
       </c>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164">
+      <c r="N2" s="320"/>
+      <c r="O2" s="321"/>
+      <c r="P2" s="322"/>
+      <c r="Q2" s="320"/>
+      <c r="R2" s="323">
         <v>5</v>
       </c>
-      <c r="S2" s="164">
-        <v>1</v>
-      </c>
-      <c r="T2" s="164"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="162"/>
+      <c r="S2" s="320">
+        <v>1</v>
+      </c>
+      <c r="T2" s="320"/>
+      <c r="U2" s="324"/>
+      <c r="V2" s="148"/>
     </row>
     <row r="3" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="157">
-        <v>2</v>
-      </c>
-      <c r="C3" s="153">
+      <c r="B3" s="230">
+        <v>2</v>
+      </c>
+      <c r="C3" s="147">
         <v>6</v>
       </c>
-      <c r="D3" s="153">
-        <v>1</v>
-      </c>
-      <c r="E3" s="153">
-        <v>3</v>
-      </c>
-      <c r="F3" s="153">
+      <c r="D3" s="240">
+        <v>1</v>
+      </c>
+      <c r="E3" s="298">
+        <v>3</v>
+      </c>
+      <c r="F3" s="147">
         <v>9</v>
       </c>
-      <c r="G3" s="153">
+      <c r="G3" s="299">
         <v>4</v>
       </c>
-      <c r="H3" s="153">
+      <c r="H3" s="237">
         <v>8</v>
       </c>
-      <c r="I3" s="153">
+      <c r="I3" s="147">
         <v>7</v>
       </c>
-      <c r="J3" s="158">
+      <c r="J3" s="231">
         <v>5</v>
       </c>
-      <c r="L3" s="162"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167">
-        <v>1</v>
-      </c>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167">
+      <c r="L3" s="148"/>
+      <c r="M3" s="325"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="284">
+        <v>1</v>
+      </c>
+      <c r="P3" s="288"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="289"/>
+      <c r="S3" s="149">
         <v>8</v>
       </c>
-      <c r="T3" s="167"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="162"/>
-    </row>
-    <row r="4" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="157">
+      <c r="T3" s="149"/>
+      <c r="U3" s="326"/>
+      <c r="V3" s="148"/>
+    </row>
+    <row r="4" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="307">
         <v>7</v>
       </c>
-      <c r="C4" s="153">
+      <c r="C4" s="242">
         <v>4</v>
       </c>
-      <c r="D4" s="153">
+      <c r="D4" s="244">
         <v>5</v>
       </c>
-      <c r="E4" s="153">
-        <v>2</v>
-      </c>
-      <c r="F4" s="153">
+      <c r="E4" s="300">
+        <v>2</v>
+      </c>
+      <c r="F4" s="301">
         <v>8</v>
       </c>
-      <c r="G4" s="153">
-        <v>1</v>
-      </c>
-      <c r="H4" s="153">
-        <v>3</v>
-      </c>
-      <c r="I4" s="153">
+      <c r="G4" s="302">
+        <v>1</v>
+      </c>
+      <c r="H4" s="241">
+        <v>3</v>
+      </c>
+      <c r="I4" s="242">
         <v>9</v>
       </c>
-      <c r="J4" s="158">
+      <c r="J4" s="308">
         <v>6</v>
       </c>
-      <c r="L4" s="162"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="167">
+      <c r="L4" s="148"/>
+      <c r="M4" s="327"/>
+      <c r="N4" s="293">
         <v>4</v>
       </c>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167">
+      <c r="O4" s="294"/>
+      <c r="P4" s="290">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="291"/>
+      <c r="R4" s="292"/>
+      <c r="S4" s="293"/>
+      <c r="T4" s="293">
         <v>9</v>
       </c>
-      <c r="U4" s="168"/>
-      <c r="V4" s="162"/>
-    </row>
-    <row r="5" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="157">
+      <c r="U4" s="328"/>
+      <c r="V4" s="148"/>
+    </row>
+    <row r="5" spans="2:22" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="309">
         <v>5</v>
       </c>
-      <c r="C5" s="153">
+      <c r="C5" s="296">
         <v>9</v>
       </c>
-      <c r="D5" s="153">
+      <c r="D5" s="297">
         <v>4</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="243">
         <v>8</v>
       </c>
-      <c r="F5" s="153">
-        <v>3</v>
-      </c>
-      <c r="G5" s="153">
+      <c r="F5" s="238">
+        <v>3</v>
+      </c>
+      <c r="G5" s="239">
         <v>7</v>
       </c>
-      <c r="H5" s="153">
+      <c r="H5" s="295">
         <v>6</v>
       </c>
-      <c r="I5" s="153">
-        <v>1</v>
-      </c>
-      <c r="J5" s="158">
-        <v>2</v>
-      </c>
-      <c r="L5" s="162"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167">
-        <v>3</v>
-      </c>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="168">
-        <v>2</v>
-      </c>
-      <c r="V5" s="162"/>
+      <c r="I5" s="296">
+        <v>1</v>
+      </c>
+      <c r="J5" s="310">
+        <v>2</v>
+      </c>
+      <c r="L5" s="148"/>
+      <c r="M5" s="329"/>
+      <c r="N5" s="286"/>
+      <c r="O5" s="287"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149">
+        <v>3</v>
+      </c>
+      <c r="R5" s="284"/>
+      <c r="S5" s="285"/>
+      <c r="T5" s="286"/>
+      <c r="U5" s="330">
+        <v>2</v>
+      </c>
+      <c r="V5" s="148"/>
     </row>
     <row r="6" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="157">
-        <v>1</v>
-      </c>
-      <c r="C6" s="153">
-        <v>2</v>
-      </c>
-      <c r="D6" s="153">
-        <v>3</v>
-      </c>
-      <c r="E6" s="153">
+      <c r="B6" s="230">
+        <v>1</v>
+      </c>
+      <c r="C6" s="147">
+        <v>2</v>
+      </c>
+      <c r="D6" s="299">
+        <v>3</v>
+      </c>
+      <c r="E6" s="237">
         <v>4</v>
       </c>
-      <c r="F6" s="153">
+      <c r="F6" s="147">
         <v>5</v>
       </c>
-      <c r="G6" s="153">
+      <c r="G6" s="240">
         <v>6</v>
       </c>
-      <c r="H6" s="153">
+      <c r="H6" s="298">
         <v>7</v>
       </c>
-      <c r="I6" s="153">
+      <c r="I6" s="147">
         <v>8</v>
       </c>
-      <c r="J6" s="158">
+      <c r="J6" s="231">
         <v>9</v>
       </c>
-      <c r="L6" s="162"/>
-      <c r="M6" s="166">
-        <v>1</v>
-      </c>
-      <c r="N6" s="167">
-        <v>2</v>
-      </c>
-      <c r="O6" s="167">
-        <v>3</v>
-      </c>
-      <c r="P6" s="167">
+      <c r="L6" s="148"/>
+      <c r="M6" s="325">
+        <v>1</v>
+      </c>
+      <c r="N6" s="149">
+        <v>2</v>
+      </c>
+      <c r="O6" s="289">
+        <v>3</v>
+      </c>
+      <c r="P6" s="149">
         <v>4</v>
       </c>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167">
+      <c r="Q6" s="149"/>
+      <c r="R6" s="284">
         <v>6</v>
       </c>
-      <c r="S6" s="167">
+      <c r="S6" s="288">
         <v>7</v>
       </c>
-      <c r="T6" s="167">
+      <c r="T6" s="149">
         <v>8</v>
       </c>
-      <c r="U6" s="168">
+      <c r="U6" s="326">
         <v>9</v>
       </c>
-      <c r="V6" s="162"/>
-    </row>
-    <row r="7" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="157">
+      <c r="V6" s="148"/>
+    </row>
+    <row r="7" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="311">
         <v>6</v>
       </c>
-      <c r="C7" s="153">
+      <c r="C7" s="301">
         <v>7</v>
       </c>
-      <c r="D7" s="153">
+      <c r="D7" s="302">
         <v>8</v>
       </c>
-      <c r="E7" s="153">
+      <c r="E7" s="241">
         <v>9</v>
       </c>
-      <c r="F7" s="153">
-        <v>1</v>
-      </c>
-      <c r="G7" s="153">
-        <v>2</v>
-      </c>
-      <c r="H7" s="153">
+      <c r="F7" s="242">
+        <v>1</v>
+      </c>
+      <c r="G7" s="244">
+        <v>2</v>
+      </c>
+      <c r="H7" s="300">
         <v>5</v>
       </c>
-      <c r="I7" s="153">
+      <c r="I7" s="301">
         <v>4</v>
       </c>
-      <c r="J7" s="158">
-        <v>3</v>
-      </c>
-      <c r="L7" s="162"/>
-      <c r="M7" s="166">
+      <c r="J7" s="312">
+        <v>3</v>
+      </c>
+      <c r="L7" s="148"/>
+      <c r="M7" s="331">
         <v>6</v>
       </c>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167">
-        <v>1</v>
-      </c>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="162"/>
-    </row>
-    <row r="8" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="157">
-        <v>3</v>
-      </c>
-      <c r="C8" s="153">
+      <c r="N7" s="291"/>
+      <c r="O7" s="292"/>
+      <c r="P7" s="293"/>
+      <c r="Q7" s="293">
+        <v>1</v>
+      </c>
+      <c r="R7" s="294"/>
+      <c r="S7" s="290"/>
+      <c r="T7" s="291"/>
+      <c r="U7" s="332"/>
+      <c r="V7" s="148"/>
+    </row>
+    <row r="8" spans="2:22" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="313">
+        <v>3</v>
+      </c>
+      <c r="C8" s="238">
         <v>8</v>
       </c>
-      <c r="D8" s="153">
+      <c r="D8" s="239">
         <v>6</v>
       </c>
-      <c r="E8" s="153">
-        <v>1</v>
-      </c>
-      <c r="F8" s="153">
+      <c r="E8" s="295">
+        <v>1</v>
+      </c>
+      <c r="F8" s="296">
         <v>4</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="297">
         <v>9</v>
       </c>
-      <c r="H8" s="153">
-        <v>2</v>
-      </c>
-      <c r="I8" s="153">
+      <c r="H8" s="243">
+        <v>2</v>
+      </c>
+      <c r="I8" s="238">
         <v>5</v>
       </c>
-      <c r="J8" s="158">
+      <c r="J8" s="314">
         <v>7</v>
       </c>
-      <c r="L8" s="162"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="167">
+      <c r="L8" s="148"/>
+      <c r="M8" s="325"/>
+      <c r="N8" s="149">
         <v>8</v>
       </c>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167">
+      <c r="O8" s="284"/>
+      <c r="P8" s="285"/>
+      <c r="Q8" s="286"/>
+      <c r="R8" s="287">
         <v>9</v>
       </c>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167">
+      <c r="S8" s="149"/>
+      <c r="T8" s="149">
         <v>5</v>
       </c>
-      <c r="U8" s="168"/>
-      <c r="V8" s="162"/>
+      <c r="U8" s="326"/>
+      <c r="V8" s="148"/>
     </row>
     <row r="9" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="157">
+      <c r="B9" s="230">
         <v>9</v>
       </c>
-      <c r="C9" s="153">
-        <v>1</v>
-      </c>
-      <c r="D9" s="153">
-        <v>2</v>
-      </c>
-      <c r="E9" s="153">
+      <c r="C9" s="147">
+        <v>1</v>
+      </c>
+      <c r="D9" s="240">
+        <v>2</v>
+      </c>
+      <c r="E9" s="298">
         <v>5</v>
       </c>
-      <c r="F9" s="153">
+      <c r="F9" s="147">
         <v>7</v>
       </c>
-      <c r="G9" s="153">
-        <v>3</v>
-      </c>
-      <c r="H9" s="153">
+      <c r="G9" s="299">
+        <v>3</v>
+      </c>
+      <c r="H9" s="237">
         <v>4</v>
       </c>
-      <c r="I9" s="153">
+      <c r="I9" s="147">
         <v>6</v>
       </c>
-      <c r="J9" s="158">
+      <c r="J9" s="231">
         <v>8</v>
       </c>
-      <c r="L9" s="162"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167">
-        <v>2</v>
-      </c>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="167"/>
-      <c r="S9" s="167">
+      <c r="L9" s="148"/>
+      <c r="M9" s="325"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="284">
+        <v>2</v>
+      </c>
+      <c r="P9" s="288"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="289"/>
+      <c r="S9" s="149">
         <v>4</v>
       </c>
-      <c r="T9" s="167"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="162"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="326"/>
+      <c r="V9" s="148"/>
     </row>
     <row r="10" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="159">
+      <c r="B10" s="232">
         <v>4</v>
       </c>
-      <c r="C10" s="160">
+      <c r="C10" s="233">
         <v>5</v>
       </c>
-      <c r="D10" s="160">
+      <c r="D10" s="315">
         <v>7</v>
       </c>
-      <c r="E10" s="160">
+      <c r="E10" s="316">
         <v>6</v>
       </c>
-      <c r="F10" s="160">
-        <v>2</v>
-      </c>
-      <c r="G10" s="160">
+      <c r="F10" s="233">
+        <v>2</v>
+      </c>
+      <c r="G10" s="317">
         <v>8</v>
       </c>
-      <c r="H10" s="160">
+      <c r="H10" s="318">
         <v>9</v>
       </c>
-      <c r="I10" s="160">
-        <v>3</v>
-      </c>
-      <c r="J10" s="161">
-        <v>1</v>
-      </c>
-      <c r="L10" s="162"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170">
+      <c r="I10" s="233">
+        <v>3</v>
+      </c>
+      <c r="J10" s="234">
+        <v>1</v>
+      </c>
+      <c r="L10" s="148"/>
+      <c r="M10" s="333"/>
+      <c r="N10" s="334"/>
+      <c r="O10" s="335">
         <v>7</v>
       </c>
-      <c r="P10" s="170">
+      <c r="P10" s="336">
         <v>6</v>
       </c>
-      <c r="Q10" s="170">
-        <v>2</v>
-      </c>
-      <c r="R10" s="170">
+      <c r="Q10" s="334">
+        <v>2</v>
+      </c>
+      <c r="R10" s="337">
         <v>8</v>
       </c>
-      <c r="S10" s="170">
+      <c r="S10" s="334">
         <v>9</v>
       </c>
-      <c r="T10" s="170">
-        <v>3</v>
-      </c>
-      <c r="U10" s="171">
-        <v>1</v>
-      </c>
-      <c r="V10" s="162"/>
-    </row>
-    <row r="11" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
+      <c r="T10" s="334">
+        <v>3</v>
+      </c>
+      <c r="U10" s="338">
+        <v>1</v>
+      </c>
+      <c r="V10" s="148"/>
+    </row>
+    <row r="11" spans="2:22" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="148"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5860,35 +7688,35 @@
   </sheetPr>
   <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="152"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
     </row>
     <row r="3" spans="2:5" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="152"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
     </row>
     <row r="4" spans="2:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="233"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="191"/>
     </row>
     <row r="5" spans="2:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5903,131 +7731,133 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="F1:J11"/>
+  <dimension ref="F1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="6:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="6:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="172">
-        <v>2</v>
-      </c>
-      <c r="H2" s="173">
-        <v>2</v>
-      </c>
-      <c r="I2" s="173">
-        <v>1</v>
-      </c>
-      <c r="J2" s="174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="6:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G3" s="175">
-        <v>2</v>
-      </c>
-      <c r="H3" s="176">
-        <v>1</v>
-      </c>
-      <c r="I3" s="176">
-        <v>2</v>
-      </c>
-      <c r="J3" s="177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="6:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="175">
-        <v>2</v>
-      </c>
-      <c r="H4" s="176">
-        <v>1</v>
-      </c>
-      <c r="I4" s="176">
-        <v>1</v>
-      </c>
-      <c r="J4" s="177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="6:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="178">
-        <v>1</v>
-      </c>
-      <c r="H5" s="179">
-        <v>1</v>
-      </c>
-      <c r="I5" s="179">
-        <v>2</v>
-      </c>
-      <c r="J5" s="180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="6:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="6:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F7" s="182"/>
-      <c r="G7" s="191">
-        <v>2</v>
-      </c>
-      <c r="H7" s="194">
-        <v>2</v>
-      </c>
-      <c r="I7" s="195">
-        <v>1</v>
-      </c>
-      <c r="J7" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="6:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F8" s="182"/>
-      <c r="G8" s="183">
-        <v>2</v>
-      </c>
-      <c r="H8" s="188">
-        <v>1</v>
-      </c>
-      <c r="I8" s="192">
-        <v>2</v>
-      </c>
-      <c r="J8" s="193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="6:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="G9" s="184">
-        <v>2</v>
-      </c>
-      <c r="H9" s="181">
-        <v>1</v>
-      </c>
-      <c r="I9" s="188">
-        <v>1</v>
-      </c>
-      <c r="J9" s="189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="6:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G10" s="185">
-        <v>1</v>
-      </c>
-      <c r="H10" s="186">
-        <v>1</v>
-      </c>
-      <c r="I10" s="187">
-        <v>2</v>
-      </c>
-      <c r="J10" s="190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="6:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="6:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="6:12" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="358">
+        <v>2</v>
+      </c>
+      <c r="H2" s="364">
+        <v>2</v>
+      </c>
+      <c r="I2" s="364">
+        <v>1</v>
+      </c>
+      <c r="J2" s="359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="6:12" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="365">
+        <v>2</v>
+      </c>
+      <c r="H3" s="147">
+        <v>1</v>
+      </c>
+      <c r="I3" s="147">
+        <v>2</v>
+      </c>
+      <c r="J3" s="366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="6:12" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="360">
+        <v>2</v>
+      </c>
+      <c r="H4" s="361">
+        <v>1</v>
+      </c>
+      <c r="I4" s="361">
+        <v>1</v>
+      </c>
+      <c r="J4" s="362">
+        <v>2</v>
+      </c>
+      <c r="L4" s="368"/>
+    </row>
+    <row r="5" spans="6:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="356">
+        <v>1</v>
+      </c>
+      <c r="H5" s="367">
+        <v>1</v>
+      </c>
+      <c r="I5" s="367">
+        <v>2</v>
+      </c>
+      <c r="J5" s="357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="6:12" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="150"/>
+      <c r="G7" s="154">
+        <v>2</v>
+      </c>
+      <c r="H7" s="371">
+        <v>2</v>
+      </c>
+      <c r="I7" s="373">
+        <v>1</v>
+      </c>
+      <c r="J7" s="372">
+        <v>1</v>
+      </c>
+      <c r="L7" s="363"/>
+    </row>
+    <row r="8" spans="6:12" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="150"/>
+      <c r="G8" s="369">
+        <v>2</v>
+      </c>
+      <c r="H8" s="370">
+        <v>1</v>
+      </c>
+      <c r="I8" s="375">
+        <v>2</v>
+      </c>
+      <c r="J8" s="374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="151">
+        <v>2</v>
+      </c>
+      <c r="H9" s="377">
+        <v>1</v>
+      </c>
+      <c r="I9" s="376">
+        <v>1</v>
+      </c>
+      <c r="J9" s="235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G10" s="379">
+        <v>1</v>
+      </c>
+      <c r="H10" s="380">
+        <v>1</v>
+      </c>
+      <c r="I10" s="378">
+        <v>2</v>
+      </c>
+      <c r="J10" s="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:12" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6050,272 +7880,272 @@
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
     </row>
     <row r="2" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="182"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="215"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223">
-        <v>3</v>
-      </c>
-      <c r="N2" s="223">
-        <v>2</v>
-      </c>
-      <c r="O2" s="223">
+      <c r="A2" s="150"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="173"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181">
+        <v>3</v>
+      </c>
+      <c r="N2" s="181">
+        <v>2</v>
+      </c>
+      <c r="O2" s="181">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="182"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="216"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223">
-        <v>1</v>
-      </c>
-      <c r="N3" s="223"/>
-      <c r="O3" s="223"/>
+      <c r="A3" s="150"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="174"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181">
+        <v>1</v>
+      </c>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
     </row>
     <row r="4" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="182"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="214"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="223"/>
+      <c r="A4" s="150"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="172"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
     </row>
     <row r="5" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="182"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="220"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223">
-        <v>2</v>
-      </c>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="223"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="178"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181">
+        <v>2</v>
+      </c>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="182"/>
-      <c r="B6" s="218"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="221"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="179"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
     </row>
     <row r="7" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="219"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="222"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223">
-        <v>3</v>
-      </c>
-      <c r="K7" s="223">
+      <c r="B7" s="177"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="180"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181">
+        <v>3</v>
+      </c>
+      <c r="K7" s="181">
         <v>5</v>
       </c>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223">
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181">
         <v>4</v>
       </c>
-      <c r="O7" s="223"/>
+      <c r="O7" s="181"/>
     </row>
     <row r="8" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I8" s="223">
+      <c r="I8" s="181">
         <v>4</v>
       </c>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223">
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="X9" s="202"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="203"/>
-      <c r="AA9" s="203"/>
-      <c r="AB9" s="203"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="204"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="X9" s="160"/>
+      <c r="Y9" s="161"/>
+      <c r="Z9" s="161"/>
+      <c r="AA9" s="161"/>
+      <c r="AB9" s="161"/>
+      <c r="AC9" s="161"/>
+      <c r="AD9" s="162"/>
     </row>
     <row r="10" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="226"/>
-      <c r="I10" s="182"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="206"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
+      <c r="I10" s="150"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="150"/>
+      <c r="O10" s="150"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="146"/>
+      <c r="AA10" s="146"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="164"/>
     </row>
     <row r="11" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="229"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="182"/>
-      <c r="X11" s="205"/>
-      <c r="Y11" s="152"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="152"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="206"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="187"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="150"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="146"/>
+      <c r="AA11" s="146"/>
+      <c r="AB11" s="146"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="164"/>
     </row>
     <row r="12" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="229"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="200"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="152"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="152"/>
-      <c r="AD12" s="206"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="158"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="146"/>
+      <c r="AB12" s="146"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="164"/>
     </row>
     <row r="13" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="229"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="200"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="X13" s="205"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="206"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="187"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="158"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="X13" s="163"/>
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="146"/>
+      <c r="AA13" s="146"/>
+      <c r="AB13" s="146"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="164"/>
     </row>
     <row r="14" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="227"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="228"/>
-      <c r="F14" s="228"/>
-      <c r="G14" s="229"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="198"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="200"/>
-      <c r="O14" s="182"/>
-      <c r="X14" s="205"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="206"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="187"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="156"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="158"/>
+      <c r="O14" s="150"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="146"/>
+      <c r="Z14" s="146"/>
+      <c r="AA14" s="146"/>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="164"/>
     </row>
     <row r="15" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="230"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="232"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="182"/>
-      <c r="X15" s="207"/>
-      <c r="Y15" s="208"/>
-      <c r="Z15" s="208"/>
-      <c r="AA15" s="208"/>
-      <c r="AB15" s="208"/>
-      <c r="AC15" s="208"/>
-      <c r="AD15" s="209"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="190"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="150"/>
+      <c r="X15" s="165"/>
+      <c r="Y15" s="166"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="166"/>
+      <c r="AB15" s="166"/>
+      <c r="AC15" s="166"/>
+      <c r="AD15" s="167"/>
     </row>
     <row r="16" spans="1:30" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -6340,44 +8170,44 @@
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="152"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="152"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="2:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="152"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="152"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="233"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="146"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="191"/>
     </row>
     <row r="4" spans="2:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="152"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="233"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="233"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="191"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="191"/>
     </row>
     <row r="5" spans="2:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="152"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="146"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/making/example.xlsx
+++ b/making/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itk_m\作業\研究室\Graduation_Thesis\making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90861685-E46D-4B54-8C4C-325903E2EE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A912CE-5A7C-473E-A515-B0C02045BA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
+    <workbookView xWindow="1815" yWindow="1530" windowWidth="16965" windowHeight="12885" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="HIExample" sheetId="13" r:id="rId1"/>
@@ -118,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="196">
+  <borders count="272">
     <border>
       <left/>
       <right/>
@@ -1441,111 +1441,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color indexed="64"/>
@@ -1746,195 +1641,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="5"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00C49A"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="thick">
-        <color theme="5"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00C49A"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="thick">
-        <color theme="5"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00C49A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="5"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00C49A"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="5"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="hair">
-        <color theme="1"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00C49A"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2406,34 +2112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color theme="1"/>
@@ -2653,129 +2331,1519 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
-        <color theme="5"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
       </right>
       <top style="thick">
-        <color theme="5"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1"/>
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="5"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00C49A"/>
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
       </right>
       <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
       </right>
       <top style="thick">
-        <color theme="5"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF00C49A"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="3"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF00C49A"/>
+      <bottom style="hair">
+        <color theme="3"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF00C49A"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
+        <color theme="4"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
       </right>
       <top style="thick">
-        <color rgb="FF00C49A"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="5"/>
-      </left>
-      <right style="thick">
-        <color theme="5"/>
-      </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="5"/>
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color theme="1"/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
       </right>
       <top/>
       <bottom style="thick">
-        <color rgb="FF00C49A"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color theme="5"/>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
       </right>
       <top style="thick">
-        <color theme="5"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1"/>
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color theme="5"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
       </right>
       <top style="thick">
-        <color theme="5"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="3"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="hair">
+        <color theme="3"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2785,7 +3853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3155,9 +4223,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3236,146 +4301,116 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="111" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="113" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="115" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="116" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="118" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="119" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="121" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="122" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="124" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="125" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="127" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="128" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="129" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="132" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="126" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="134" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3389,24 +4424,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="137" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="138" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="139" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="141" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="143" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3455,175 +4517,400 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="171" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="165" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="177" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="179" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="178" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="181" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="180" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="182" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="183" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="184" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="186" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="196" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="197" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="198" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="199" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="200" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="166" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="167" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="168" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="169" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="171" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="173" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="174" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="175" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="181" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="202" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="203" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="204" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="176" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="206" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="207" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="208" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="209" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="210" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="211" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="212" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="213" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="214" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="215" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="216" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="217" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="218" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="219" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="220" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="221" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="222" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="197" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="205" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="223" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="224" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="225" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="226" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="227" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="228" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="229" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="230" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="232" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="231" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="234" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="235" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="236" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="237" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="238" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="239" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="240" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="241" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="242" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="243" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="244" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="246" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="247" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="248" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="250" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="249" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="251" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="252" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="253" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="254" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="255" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="256" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="257" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="258" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="259" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="260" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="261" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="262" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="263" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="264" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="265" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="266" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="267" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="188" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="190" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="189" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="193" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="192" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="138" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="139" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="140" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="141" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="142" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="143" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="144" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="145" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="194" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="195" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="268" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="245" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="269" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="270" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="271" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3651,42 +4938,42 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="研究発表">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="28385E"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="C2CDE5"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="333333"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF2525"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="D4D4D4"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="865640"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="9B8357"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="C2BC80"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="94A088"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="2998E3"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="8C8C8C"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -3937,7 +5224,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3950,107 +5237,104 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="198"/>
-      <c r="H1" s="269"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
+      <c r="C1" s="346"/>
+      <c r="L1" s="346"/>
+      <c r="M1" s="346"/>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="266">
-        <v>2</v>
-      </c>
-      <c r="C2" s="262">
-        <v>3</v>
-      </c>
-      <c r="D2" s="263">
-        <v>2</v>
-      </c>
-      <c r="G2" s="270">
-        <v>2</v>
-      </c>
-      <c r="H2" s="271">
-        <v>3</v>
-      </c>
-      <c r="I2" s="272">
-        <v>2</v>
-      </c>
-      <c r="K2" s="182"/>
-      <c r="L2" s="279">
-        <v>2</v>
-      </c>
-      <c r="M2" s="278">
-        <v>3</v>
-      </c>
-      <c r="N2" s="263">
+      <c r="B2" s="344">
+        <v>2</v>
+      </c>
+      <c r="C2" s="347">
+        <v>3</v>
+      </c>
+      <c r="D2" s="348">
+        <v>2</v>
+      </c>
+      <c r="G2" s="336">
+        <v>2</v>
+      </c>
+      <c r="H2" s="337">
+        <v>3</v>
+      </c>
+      <c r="I2" s="338">
+        <v>2</v>
+      </c>
+      <c r="K2" s="320"/>
+      <c r="L2" s="351">
+        <v>2</v>
+      </c>
+      <c r="M2" s="352">
+        <v>3</v>
+      </c>
+      <c r="N2" s="348">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="182"/>
-      <c r="B3" s="261">
-        <v>2</v>
-      </c>
-      <c r="C3" s="186">
-        <v>1</v>
-      </c>
-      <c r="D3" s="265">
-        <v>3</v>
-      </c>
-      <c r="F3" s="269"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="153">
-        <v>1</v>
-      </c>
-      <c r="I3" s="274">
-        <v>3</v>
-      </c>
-      <c r="K3" s="182"/>
-      <c r="L3" s="261">
-        <v>1</v>
-      </c>
-      <c r="M3" s="186">
-        <v>1</v>
-      </c>
-      <c r="N3" s="265">
+      <c r="A3" s="320"/>
+      <c r="B3" s="227">
+        <v>2</v>
+      </c>
+      <c r="C3" s="332">
+        <v>1</v>
+      </c>
+      <c r="D3" s="349">
+        <v>3</v>
+      </c>
+      <c r="G3" s="339"/>
+      <c r="H3" s="150">
+        <v>1</v>
+      </c>
+      <c r="I3" s="340">
+        <v>3</v>
+      </c>
+      <c r="K3" s="320"/>
+      <c r="L3" s="227">
+        <v>1</v>
+      </c>
+      <c r="M3" s="332">
+        <v>1</v>
+      </c>
+      <c r="N3" s="349">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="182"/>
-      <c r="B4" s="268">
-        <v>3</v>
-      </c>
-      <c r="C4" s="267">
-        <v>2</v>
-      </c>
-      <c r="D4" s="264">
-        <v>1</v>
-      </c>
-      <c r="F4" s="269"/>
-      <c r="G4" s="275">
-        <v>3</v>
-      </c>
-      <c r="H4" s="276">
-        <v>2</v>
-      </c>
-      <c r="I4" s="277">
-        <v>1</v>
-      </c>
-      <c r="K4" s="182"/>
-      <c r="L4" s="268">
-        <v>3</v>
-      </c>
-      <c r="M4" s="267">
-        <v>2</v>
-      </c>
-      <c r="N4" s="264">
+      <c r="A4" s="320"/>
+      <c r="B4" s="345">
+        <v>3</v>
+      </c>
+      <c r="C4" s="334">
+        <v>2</v>
+      </c>
+      <c r="D4" s="335">
+        <v>1</v>
+      </c>
+      <c r="G4" s="341">
+        <v>3</v>
+      </c>
+      <c r="H4" s="342">
+        <v>2</v>
+      </c>
+      <c r="I4" s="343">
+        <v>1</v>
+      </c>
+      <c r="K4" s="320"/>
+      <c r="L4" s="350">
+        <v>3</v>
+      </c>
+      <c r="M4" s="334">
+        <v>2</v>
+      </c>
+      <c r="N4" s="335">
         <v>1</v>
       </c>
     </row>
@@ -4077,101 +5361,101 @@
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:23" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
     </row>
     <row r="2" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="253"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="236"/>
-      <c r="K2" s="260"/>
-      <c r="N2" s="236"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="204"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="204"/>
+      <c r="K2" s="226"/>
+      <c r="N2" s="204"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="172"/>
     </row>
     <row r="3" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="248"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="255"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="247"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="206"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="221"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="174"/>
     </row>
     <row r="4" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="205"/>
-      <c r="C4" s="217"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="249"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="206"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="215"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="149"/>
+      <c r="T4" s="149"/>
+      <c r="U4" s="149"/>
+      <c r="V4" s="149"/>
+      <c r="W4" s="174"/>
     </row>
     <row r="5" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="182"/>
-      <c r="B5" s="233"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="259"/>
-      <c r="I5" s="182"/>
-      <c r="L5" s="182"/>
-      <c r="N5" s="198"/>
-      <c r="R5" s="205"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="206"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="225"/>
+      <c r="I5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="N5" s="166"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="174"/>
     </row>
     <row r="6" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="182"/>
-      <c r="B6" s="257"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="258"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="199"/>
-      <c r="K6" s="236"/>
-      <c r="M6" s="200"/>
-      <c r="R6" s="205"/>
-      <c r="S6" s="152"/>
-      <c r="T6" s="152"/>
-      <c r="U6" s="152"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="206"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="224"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="204"/>
+      <c r="M6" s="168"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="174"/>
     </row>
     <row r="7" spans="1:23" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="R7" s="207"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="208"/>
-      <c r="U7" s="208"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="209"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="176"/>
+      <c r="T7" s="176"/>
+      <c r="U7" s="176"/>
+      <c r="V7" s="176"/>
+      <c r="W7" s="177"/>
     </row>
     <row r="8" spans="1:23" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -5092,10 +6376,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="L3:S18"/>
+  <dimension ref="L1:AM28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20:AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5103,113 +6387,210 @@
     <col min="1" max="16384" width="7.875" style="114"/>
   </cols>
   <sheetData>
-    <row r="3" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M4" s="116"/>
-      <c r="N4" s="117">
+    <row r="1" spans="12:39" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="12:39" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="W2" s="228"/>
+      <c r="X2" s="229">
         <v>0</v>
       </c>
-      <c r="O4" s="117">
-        <v>2</v>
-      </c>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117">
-        <v>1</v>
-      </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M5" s="124"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="131"/>
-    </row>
-    <row r="6" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M6" s="124"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130">
-        <v>3</v>
-      </c>
-      <c r="S6" s="131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M7" s="124">
-        <v>3</v>
-      </c>
-      <c r="N7" s="130">
+      <c r="Y2" s="229">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="229"/>
+      <c r="AA2" s="229">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="229"/>
+      <c r="AC2" s="230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="12:39" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="W3" s="231"/>
+      <c r="X3" s="232"/>
+      <c r="Y3" s="232"/>
+      <c r="Z3" s="232"/>
+      <c r="AA3" s="232"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="233"/>
+    </row>
+    <row r="4" spans="12:39" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="M4" s="228"/>
+      <c r="N4" s="229">
         <v>0</v>
       </c>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130">
-        <v>3</v>
-      </c>
-      <c r="S7" s="131">
+      <c r="O4" s="229">
+        <v>2</v>
+      </c>
+      <c r="P4" s="229"/>
+      <c r="Q4" s="229">
+        <v>1</v>
+      </c>
+      <c r="R4" s="229"/>
+      <c r="S4" s="230">
+        <v>3</v>
+      </c>
+      <c r="W4" s="231"/>
+      <c r="X4" s="232"/>
+      <c r="Y4" s="232"/>
+      <c r="Z4" s="232">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="232"/>
+      <c r="AB4" s="232">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="12:39" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M5" s="231"/>
+      <c r="N5" s="232"/>
+      <c r="O5" s="232"/>
+      <c r="P5" s="232"/>
+      <c r="Q5" s="232"/>
+      <c r="R5" s="232"/>
+      <c r="S5" s="233"/>
+      <c r="W5" s="231">
+        <v>3</v>
+      </c>
+      <c r="X5" s="232">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M8" s="124">
-        <v>3</v>
-      </c>
-      <c r="N8" s="130">
-        <v>1</v>
-      </c>
-      <c r="O8" s="130"/>
-      <c r="P8" s="130">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="130"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="131"/>
-    </row>
-    <row r="9" spans="12:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M9" s="124"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="131"/>
-    </row>
-    <row r="10" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M10" s="150">
-        <v>3</v>
-      </c>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148">
-        <v>3</v>
-      </c>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148">
+      <c r="Y5" s="232"/>
+      <c r="Z5" s="232"/>
+      <c r="AA5" s="232"/>
+      <c r="AB5" s="232">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="233">
         <v>0</v>
       </c>
-      <c r="R10" s="148">
-        <v>2</v>
-      </c>
-      <c r="S10" s="151"/>
-    </row>
-    <row r="11" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="12:39" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M6" s="231"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="232"/>
+      <c r="P6" s="232">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="232"/>
+      <c r="R6" s="232">
+        <v>3</v>
+      </c>
+      <c r="S6" s="233">
+        <v>1</v>
+      </c>
+      <c r="W6" s="231">
+        <v>3</v>
+      </c>
+      <c r="X6" s="232">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="232"/>
+      <c r="Z6" s="232">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="232"/>
+      <c r="AB6" s="232"/>
+      <c r="AC6" s="233"/>
+    </row>
+    <row r="7" spans="12:39" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M7" s="231">
+        <v>3</v>
+      </c>
+      <c r="N7" s="232">
+        <v>0</v>
+      </c>
+      <c r="O7" s="232"/>
+      <c r="P7" s="232"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="232">
+        <v>3</v>
+      </c>
+      <c r="S7" s="233">
+        <v>0</v>
+      </c>
+      <c r="W7" s="231"/>
+      <c r="X7" s="232"/>
+      <c r="Y7" s="232"/>
+      <c r="Z7" s="232"/>
+      <c r="AA7" s="232"/>
+      <c r="AB7" s="232"/>
+      <c r="AC7" s="233"/>
+    </row>
+    <row r="8" spans="12:39" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M8" s="231">
+        <v>3</v>
+      </c>
+      <c r="N8" s="232">
+        <v>1</v>
+      </c>
+      <c r="O8" s="232"/>
+      <c r="P8" s="232">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="232"/>
+      <c r="R8" s="232"/>
+      <c r="S8" s="233"/>
+      <c r="W8" s="234">
+        <v>3</v>
+      </c>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="235">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="236"/>
+    </row>
+    <row r="9" spans="12:39" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="231"/>
+      <c r="N9" s="232"/>
+      <c r="O9" s="232"/>
+      <c r="P9" s="232"/>
+      <c r="Q9" s="232"/>
+      <c r="R9" s="232"/>
+      <c r="S9" s="233"/>
+    </row>
+    <row r="10" spans="12:39" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M10" s="234">
+        <v>3</v>
+      </c>
+      <c r="N10" s="235"/>
+      <c r="O10" s="235">
+        <v>3</v>
+      </c>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235">
+        <v>0</v>
+      </c>
+      <c r="R10" s="235">
+        <v>2</v>
+      </c>
+      <c r="S10" s="236"/>
+    </row>
+    <row r="11" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="P11" s="115"/>
       <c r="Q11" s="115"/>
       <c r="R11" s="115"/>
       <c r="S11" s="115"/>
-    </row>
-    <row r="12" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Y11" s="239"/>
+      <c r="Z11" s="239"/>
+      <c r="AA11" s="239"/>
+      <c r="AB11" s="239"/>
+      <c r="AJ11" s="239"/>
+      <c r="AK11" s="239"/>
+      <c r="AL11" s="239"/>
+      <c r="AM11" s="239"/>
+    </row>
+    <row r="12" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M12" s="116">
         <v>0</v>
       </c>
@@ -5231,148 +6612,483 @@
       <c r="S12" s="122">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M13" s="124">
+      <c r="V12" s="228">
         <v>0</v>
       </c>
-      <c r="N13" s="125">
+      <c r="W12" s="229">
+        <v>0</v>
+      </c>
+      <c r="X12" s="263">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="243">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="237">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="241">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="242">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="228"/>
+      <c r="AH12" s="229">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="298">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="243">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="237">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="304"/>
+      <c r="AM12" s="240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M13" s="123">
+        <v>0</v>
+      </c>
+      <c r="N13" s="124">
         <v>2</v>
       </c>
       <c r="O13" s="119">
         <v>2</v>
       </c>
-      <c r="P13" s="126">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="127">
-        <v>1</v>
-      </c>
-      <c r="R13" s="128">
-        <v>3</v>
-      </c>
-      <c r="S13" s="129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M14" s="132">
+      <c r="P13" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="126">
+        <v>1</v>
+      </c>
+      <c r="R13" s="127">
+        <v>3</v>
+      </c>
+      <c r="S13" s="128">
+        <v>1</v>
+      </c>
+      <c r="V13" s="231">
+        <v>0</v>
+      </c>
+      <c r="W13" s="248">
+        <v>2</v>
+      </c>
+      <c r="X13" s="243">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="251">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="244">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="245">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="238">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="231"/>
+      <c r="AH13" s="251">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="243"/>
+      <c r="AJ13" s="251">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="244"/>
+      <c r="AL13" s="306"/>
+      <c r="AM13" s="238"/>
+    </row>
+    <row r="14" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M14" s="131">
         <v>2</v>
       </c>
       <c r="N14" s="119">
         <v>2</v>
       </c>
-      <c r="O14" s="127">
-        <v>1</v>
-      </c>
-      <c r="P14" s="133">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="134">
-        <v>1</v>
-      </c>
-      <c r="R14" s="135">
-        <v>3</v>
-      </c>
-      <c r="S14" s="136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L15" s="137"/>
-      <c r="M15" s="138">
-        <v>3</v>
-      </c>
-      <c r="N15" s="130">
+      <c r="O14" s="126">
+        <v>1</v>
+      </c>
+      <c r="P14" s="132">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="133">
+        <v>1</v>
+      </c>
+      <c r="R14" s="134">
+        <v>3</v>
+      </c>
+      <c r="S14" s="135">
+        <v>1</v>
+      </c>
+      <c r="V14" s="259">
+        <v>2</v>
+      </c>
+      <c r="W14" s="243">
+        <v>2</v>
+      </c>
+      <c r="X14" s="244">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="256">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="254">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="242">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="246">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="259">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="243">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="232"/>
+      <c r="AJ14" s="299">
+        <v>3</v>
+      </c>
+      <c r="AK14" s="300"/>
+      <c r="AL14" s="301">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L15" s="136"/>
+      <c r="M15" s="137">
+        <v>3</v>
+      </c>
+      <c r="N15" s="129">
         <v>0</v>
       </c>
-      <c r="O15" s="127">
-        <v>1</v>
-      </c>
-      <c r="P15" s="139">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="139">
-        <v>2</v>
-      </c>
-      <c r="R15" s="128">
-        <v>3</v>
-      </c>
-      <c r="S15" s="131">
+      <c r="O15" s="126">
+        <v>1</v>
+      </c>
+      <c r="P15" s="138">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="138">
+        <v>2</v>
+      </c>
+      <c r="R15" s="127">
+        <v>3</v>
+      </c>
+      <c r="S15" s="130">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="M16" s="140">
-        <v>3</v>
-      </c>
-      <c r="N16" s="134">
-        <v>1</v>
-      </c>
-      <c r="O16" s="127">
-        <v>1</v>
-      </c>
-      <c r="P16" s="139">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="141">
-        <v>2</v>
-      </c>
-      <c r="R16" s="142">
-        <v>2</v>
-      </c>
-      <c r="S16" s="143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L17" s="137"/>
+      <c r="U15" s="260"/>
+      <c r="V15" s="262">
+        <v>3</v>
+      </c>
+      <c r="W15" s="232">
+        <v>0</v>
+      </c>
+      <c r="X15" s="244">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="255">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="255">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="245">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="233">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="260"/>
+      <c r="AG15" s="262">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="232">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="232"/>
+      <c r="AJ15" s="232">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="255"/>
+      <c r="AL15" s="307">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M16" s="139">
+        <v>3</v>
+      </c>
+      <c r="N16" s="133">
+        <v>1</v>
+      </c>
+      <c r="O16" s="126">
+        <v>1</v>
+      </c>
+      <c r="P16" s="138">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="140">
+        <v>2</v>
+      </c>
+      <c r="R16" s="141">
+        <v>2</v>
+      </c>
+      <c r="S16" s="142">
+        <v>2</v>
+      </c>
+      <c r="V16" s="261">
+        <v>3</v>
+      </c>
+      <c r="W16" s="254">
+        <v>1</v>
+      </c>
+      <c r="X16" s="244">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="255">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="252">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="240">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="247">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="305">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="254">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="232"/>
+      <c r="AJ16" s="232">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="254">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="237">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L17" s="136"/>
       <c r="M17" s="119">
         <v>2</v>
       </c>
-      <c r="N17" s="126">
-        <v>1</v>
-      </c>
-      <c r="O17" s="127">
-        <v>1</v>
-      </c>
-      <c r="P17" s="134">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="144">
-        <v>2</v>
-      </c>
-      <c r="R17" s="141">
-        <v>2</v>
-      </c>
-      <c r="S17" s="142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="12:19" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L18" s="137"/>
-      <c r="M18" s="145">
-        <v>3</v>
-      </c>
-      <c r="N18" s="146">
-        <v>3</v>
-      </c>
-      <c r="O18" s="145">
-        <v>3</v>
-      </c>
-      <c r="P18" s="147">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="148">
+      <c r="N17" s="125">
+        <v>1</v>
+      </c>
+      <c r="O17" s="126">
+        <v>1</v>
+      </c>
+      <c r="P17" s="133">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="143">
+        <v>2</v>
+      </c>
+      <c r="R17" s="140">
+        <v>2</v>
+      </c>
+      <c r="S17" s="141">
+        <v>2</v>
+      </c>
+      <c r="U17" s="260"/>
+      <c r="V17" s="243">
+        <v>2</v>
+      </c>
+      <c r="W17" s="251">
+        <v>1</v>
+      </c>
+      <c r="X17" s="244">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="254">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="253">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="252">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="240">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="260"/>
+      <c r="AG17" s="243"/>
+      <c r="AH17" s="232"/>
+      <c r="AI17" s="232"/>
+      <c r="AJ17" s="237"/>
+      <c r="AK17" s="253"/>
+      <c r="AL17" s="254"/>
+      <c r="AM17" s="256"/>
+    </row>
+    <row r="18" spans="12:39" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L18" s="136"/>
+      <c r="M18" s="144">
+        <v>3</v>
+      </c>
+      <c r="N18" s="145">
+        <v>3</v>
+      </c>
+      <c r="O18" s="144">
+        <v>3</v>
+      </c>
+      <c r="P18" s="146">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="147">
         <v>0</v>
       </c>
-      <c r="R18" s="149">
-        <v>2</v>
-      </c>
-      <c r="S18" s="145">
-        <v>3</v>
-      </c>
-    </row>
+      <c r="R18" s="148">
+        <v>2</v>
+      </c>
+      <c r="S18" s="144">
+        <v>3</v>
+      </c>
+      <c r="U18" s="260"/>
+      <c r="V18" s="249">
+        <v>3</v>
+      </c>
+      <c r="W18" s="258">
+        <v>3</v>
+      </c>
+      <c r="X18" s="249">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="257">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="235">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="250">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="249">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="260"/>
+      <c r="AG18" s="249">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="258">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="252">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="302">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="303">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="235">
+        <v>2</v>
+      </c>
+      <c r="AM18" s="249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="12:39" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Y20" s="239"/>
+      <c r="Z20" s="239"/>
+      <c r="AA20" s="239"/>
+      <c r="AB20" s="239"/>
+    </row>
+    <row r="21" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V21" s="228"/>
+      <c r="W21" s="229"/>
+      <c r="X21" s="263"/>
+      <c r="Y21" s="243"/>
+      <c r="Z21" s="237"/>
+      <c r="AA21" s="241"/>
+      <c r="AB21" s="242"/>
+    </row>
+    <row r="22" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V22" s="231"/>
+      <c r="W22" s="248"/>
+      <c r="X22" s="243"/>
+      <c r="Y22" s="251"/>
+      <c r="Z22" s="244"/>
+      <c r="AA22" s="245"/>
+      <c r="AB22" s="238"/>
+    </row>
+    <row r="23" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V23" s="259"/>
+      <c r="W23" s="243"/>
+      <c r="X23" s="244"/>
+      <c r="Y23" s="256"/>
+      <c r="Z23" s="254"/>
+      <c r="AA23" s="242"/>
+      <c r="AB23" s="246"/>
+    </row>
+    <row r="24" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U24" s="260"/>
+      <c r="V24" s="262"/>
+      <c r="W24" s="232"/>
+      <c r="X24" s="244"/>
+      <c r="Y24" s="255"/>
+      <c r="Z24" s="255"/>
+      <c r="AA24" s="245"/>
+      <c r="AB24" s="233"/>
+    </row>
+    <row r="25" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V25" s="261"/>
+      <c r="W25" s="254"/>
+      <c r="X25" s="244"/>
+      <c r="Y25" s="255"/>
+      <c r="Z25" s="252"/>
+      <c r="AA25" s="240"/>
+      <c r="AB25" s="247"/>
+    </row>
+    <row r="26" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U26" s="260"/>
+      <c r="V26" s="243"/>
+      <c r="W26" s="251"/>
+      <c r="X26" s="244"/>
+      <c r="Y26" s="254"/>
+      <c r="Z26" s="253"/>
+      <c r="AA26" s="252"/>
+      <c r="AB26" s="240"/>
+    </row>
+    <row r="27" spans="12:39" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U27" s="260"/>
+      <c r="V27" s="249"/>
+      <c r="W27" s="258"/>
+      <c r="X27" s="249"/>
+      <c r="Y27" s="257"/>
+      <c r="Z27" s="235"/>
+      <c r="AA27" s="250"/>
+      <c r="AB27" s="249"/>
+    </row>
+    <row r="28" spans="12:39" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5390,460 +7106,460 @@
   <dimension ref="B1:V11"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="162"/>
-      <c r="S1" s="162"/>
-      <c r="T1" s="162"/>
-      <c r="U1" s="162"/>
-      <c r="V1" s="162"/>
-    </row>
-    <row r="2" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="154">
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="151"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
+    </row>
+    <row r="2" spans="2:22" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="264">
         <v>8</v>
       </c>
-      <c r="C2" s="155">
-        <v>3</v>
-      </c>
-      <c r="D2" s="155">
+      <c r="C2" s="265">
+        <v>3</v>
+      </c>
+      <c r="D2" s="290">
         <v>9</v>
       </c>
-      <c r="E2" s="155">
+      <c r="E2" s="291">
         <v>7</v>
       </c>
-      <c r="F2" s="155">
+      <c r="F2" s="265">
         <v>6</v>
       </c>
-      <c r="G2" s="155">
+      <c r="G2" s="290">
         <v>5</v>
       </c>
-      <c r="H2" s="155">
-        <v>1</v>
-      </c>
-      <c r="I2" s="155">
-        <v>2</v>
-      </c>
-      <c r="J2" s="156">
+      <c r="H2" s="291">
+        <v>1</v>
+      </c>
+      <c r="I2" s="265">
+        <v>2</v>
+      </c>
+      <c r="J2" s="266">
         <v>4</v>
       </c>
-      <c r="L2" s="162"/>
-      <c r="M2" s="163">
+      <c r="L2" s="151"/>
+      <c r="M2" s="152">
         <v>8</v>
       </c>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164">
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153">
         <v>5</v>
       </c>
-      <c r="S2" s="164">
-        <v>1</v>
-      </c>
-      <c r="T2" s="164"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="162"/>
+      <c r="S2" s="153">
+        <v>1</v>
+      </c>
+      <c r="T2" s="153"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="151"/>
     </row>
     <row r="3" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="157">
-        <v>2</v>
-      </c>
-      <c r="C3" s="153">
+      <c r="B3" s="267">
+        <v>2</v>
+      </c>
+      <c r="C3" s="268">
         <v>6</v>
       </c>
-      <c r="D3" s="153">
-        <v>1</v>
-      </c>
-      <c r="E3" s="153">
-        <v>3</v>
-      </c>
-      <c r="F3" s="153">
+      <c r="D3" s="286">
+        <v>1</v>
+      </c>
+      <c r="E3" s="285">
+        <v>3</v>
+      </c>
+      <c r="F3" s="268">
         <v>9</v>
       </c>
-      <c r="G3" s="153">
+      <c r="G3" s="286">
         <v>4</v>
       </c>
-      <c r="H3" s="153">
+      <c r="H3" s="285">
         <v>8</v>
       </c>
-      <c r="I3" s="153">
+      <c r="I3" s="268">
         <v>7</v>
       </c>
-      <c r="J3" s="158">
+      <c r="J3" s="269">
         <v>5</v>
       </c>
-      <c r="L3" s="162"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167">
-        <v>1</v>
-      </c>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167">
+      <c r="L3" s="151"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156">
+        <v>1</v>
+      </c>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156">
         <v>8</v>
       </c>
-      <c r="T3" s="167"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="162"/>
-    </row>
-    <row r="4" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="157">
+      <c r="T3" s="156"/>
+      <c r="U3" s="157"/>
+      <c r="V3" s="151"/>
+    </row>
+    <row r="4" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="292">
         <v>7</v>
       </c>
-      <c r="C4" s="153">
+      <c r="C4" s="288">
         <v>4</v>
       </c>
-      <c r="D4" s="153">
+      <c r="D4" s="289">
         <v>5</v>
       </c>
-      <c r="E4" s="153">
-        <v>2</v>
-      </c>
-      <c r="F4" s="153">
+      <c r="E4" s="287">
+        <v>2</v>
+      </c>
+      <c r="F4" s="288">
         <v>8</v>
       </c>
-      <c r="G4" s="153">
-        <v>1</v>
-      </c>
-      <c r="H4" s="153">
-        <v>3</v>
-      </c>
-      <c r="I4" s="153">
+      <c r="G4" s="289">
+        <v>1</v>
+      </c>
+      <c r="H4" s="287">
+        <v>3</v>
+      </c>
+      <c r="I4" s="288">
         <v>9</v>
       </c>
-      <c r="J4" s="158">
+      <c r="J4" s="293">
         <v>6</v>
       </c>
-      <c r="L4" s="162"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="167">
+      <c r="L4" s="151"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="156">
         <v>4</v>
       </c>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167">
+      <c r="O4" s="156"/>
+      <c r="P4" s="156">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156">
         <v>9</v>
       </c>
-      <c r="U4" s="168"/>
-      <c r="V4" s="162"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="151"/>
     </row>
     <row r="5" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="157">
+      <c r="B5" s="294">
         <v>5</v>
       </c>
-      <c r="C5" s="153">
+      <c r="C5" s="283">
         <v>9</v>
       </c>
-      <c r="D5" s="153">
+      <c r="D5" s="284">
         <v>4</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="282">
         <v>8</v>
       </c>
-      <c r="F5" s="153">
-        <v>3</v>
-      </c>
-      <c r="G5" s="153">
+      <c r="F5" s="283">
+        <v>3</v>
+      </c>
+      <c r="G5" s="284">
         <v>7</v>
       </c>
-      <c r="H5" s="153">
+      <c r="H5" s="282">
         <v>6</v>
       </c>
-      <c r="I5" s="153">
-        <v>1</v>
-      </c>
-      <c r="J5" s="158">
-        <v>2</v>
-      </c>
-      <c r="L5" s="162"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167">
-        <v>3</v>
-      </c>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="168">
-        <v>2</v>
-      </c>
-      <c r="V5" s="162"/>
+      <c r="I5" s="283">
+        <v>1</v>
+      </c>
+      <c r="J5" s="295">
+        <v>2</v>
+      </c>
+      <c r="L5" s="151"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156">
+        <v>3</v>
+      </c>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="157">
+        <v>2</v>
+      </c>
+      <c r="V5" s="151"/>
     </row>
     <row r="6" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="157">
-        <v>1</v>
-      </c>
-      <c r="C6" s="153">
-        <v>2</v>
-      </c>
-      <c r="D6" s="153">
-        <v>3</v>
-      </c>
-      <c r="E6" s="153">
+      <c r="B6" s="267">
+        <v>1</v>
+      </c>
+      <c r="C6" s="268">
+        <v>2</v>
+      </c>
+      <c r="D6" s="286">
+        <v>3</v>
+      </c>
+      <c r="E6" s="285">
         <v>4</v>
       </c>
-      <c r="F6" s="153">
+      <c r="F6" s="268">
         <v>5</v>
       </c>
-      <c r="G6" s="153">
+      <c r="G6" s="286">
         <v>6</v>
       </c>
-      <c r="H6" s="153">
+      <c r="H6" s="285">
         <v>7</v>
       </c>
-      <c r="I6" s="153">
+      <c r="I6" s="268">
         <v>8</v>
       </c>
-      <c r="J6" s="158">
+      <c r="J6" s="269">
         <v>9</v>
       </c>
-      <c r="L6" s="162"/>
-      <c r="M6" s="166">
-        <v>1</v>
-      </c>
-      <c r="N6" s="167">
-        <v>2</v>
-      </c>
-      <c r="O6" s="167">
-        <v>3</v>
-      </c>
-      <c r="P6" s="167">
+      <c r="L6" s="151"/>
+      <c r="M6" s="155">
+        <v>1</v>
+      </c>
+      <c r="N6" s="156">
+        <v>2</v>
+      </c>
+      <c r="O6" s="156">
+        <v>3</v>
+      </c>
+      <c r="P6" s="156">
         <v>4</v>
       </c>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167">
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156">
         <v>6</v>
       </c>
-      <c r="S6" s="167">
+      <c r="S6" s="156">
         <v>7</v>
       </c>
-      <c r="T6" s="167">
+      <c r="T6" s="156">
         <v>8</v>
       </c>
-      <c r="U6" s="168">
+      <c r="U6" s="157">
         <v>9</v>
       </c>
-      <c r="V6" s="162"/>
-    </row>
-    <row r="7" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="157">
+      <c r="V6" s="151"/>
+    </row>
+    <row r="7" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="292">
         <v>6</v>
       </c>
-      <c r="C7" s="153">
+      <c r="C7" s="288">
         <v>7</v>
       </c>
-      <c r="D7" s="153">
+      <c r="D7" s="289">
         <v>8</v>
       </c>
-      <c r="E7" s="153">
+      <c r="E7" s="287">
         <v>9</v>
       </c>
-      <c r="F7" s="153">
-        <v>1</v>
-      </c>
-      <c r="G7" s="153">
-        <v>2</v>
-      </c>
-      <c r="H7" s="153">
+      <c r="F7" s="288">
+        <v>1</v>
+      </c>
+      <c r="G7" s="289">
+        <v>2</v>
+      </c>
+      <c r="H7" s="287">
         <v>5</v>
       </c>
-      <c r="I7" s="153">
+      <c r="I7" s="288">
         <v>4</v>
       </c>
-      <c r="J7" s="158">
-        <v>3</v>
-      </c>
-      <c r="L7" s="162"/>
-      <c r="M7" s="166">
+      <c r="J7" s="293">
+        <v>3</v>
+      </c>
+      <c r="L7" s="151"/>
+      <c r="M7" s="155">
         <v>6</v>
       </c>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167">
-        <v>1</v>
-      </c>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="168"/>
-      <c r="V7" s="162"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156">
+        <v>1</v>
+      </c>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="157"/>
+      <c r="V7" s="151"/>
     </row>
     <row r="8" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="157">
-        <v>3</v>
-      </c>
-      <c r="C8" s="153">
+      <c r="B8" s="274">
+        <v>3</v>
+      </c>
+      <c r="C8" s="275">
         <v>8</v>
       </c>
-      <c r="D8" s="153">
+      <c r="D8" s="277">
         <v>6</v>
       </c>
-      <c r="E8" s="153">
-        <v>1</v>
-      </c>
-      <c r="F8" s="153">
+      <c r="E8" s="282">
+        <v>1</v>
+      </c>
+      <c r="F8" s="283">
         <v>4</v>
       </c>
-      <c r="G8" s="153">
+      <c r="G8" s="284">
         <v>9</v>
       </c>
-      <c r="H8" s="153">
-        <v>2</v>
-      </c>
-      <c r="I8" s="153">
+      <c r="H8" s="276">
+        <v>2</v>
+      </c>
+      <c r="I8" s="275">
         <v>5</v>
       </c>
-      <c r="J8" s="158">
+      <c r="J8" s="281">
         <v>7</v>
       </c>
-      <c r="L8" s="162"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="167">
+      <c r="L8" s="151"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="156">
         <v>8</v>
       </c>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167">
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156">
         <v>9</v>
       </c>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167">
+      <c r="S8" s="156"/>
+      <c r="T8" s="156">
         <v>5</v>
       </c>
-      <c r="U8" s="168"/>
-      <c r="V8" s="162"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="151"/>
     </row>
     <row r="9" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="157">
+      <c r="B9" s="267">
         <v>9</v>
       </c>
-      <c r="C9" s="153">
-        <v>1</v>
-      </c>
-      <c r="D9" s="153">
-        <v>2</v>
-      </c>
-      <c r="E9" s="153">
+      <c r="C9" s="268">
+        <v>1</v>
+      </c>
+      <c r="D9" s="278">
+        <v>2</v>
+      </c>
+      <c r="E9" s="285">
         <v>5</v>
       </c>
-      <c r="F9" s="153">
+      <c r="F9" s="268">
         <v>7</v>
       </c>
-      <c r="G9" s="153">
-        <v>3</v>
-      </c>
-      <c r="H9" s="153">
+      <c r="G9" s="286">
+        <v>3</v>
+      </c>
+      <c r="H9" s="273">
         <v>4</v>
       </c>
-      <c r="I9" s="153">
+      <c r="I9" s="268">
         <v>6</v>
       </c>
-      <c r="J9" s="158">
+      <c r="J9" s="269">
         <v>8</v>
       </c>
-      <c r="L9" s="162"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167">
-        <v>2</v>
-      </c>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="167"/>
-      <c r="S9" s="167">
+      <c r="L9" s="151"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156">
+        <v>2</v>
+      </c>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156">
         <v>4</v>
       </c>
-      <c r="T9" s="167"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="162"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="151"/>
     </row>
     <row r="10" spans="2:22" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="159">
+      <c r="B10" s="270">
         <v>4</v>
       </c>
-      <c r="C10" s="160">
+      <c r="C10" s="271">
         <v>5</v>
       </c>
-      <c r="D10" s="160">
+      <c r="D10" s="279">
         <v>7</v>
       </c>
-      <c r="E10" s="160">
+      <c r="E10" s="296">
         <v>6</v>
       </c>
-      <c r="F10" s="160">
-        <v>2</v>
-      </c>
-      <c r="G10" s="160">
+      <c r="F10" s="271">
+        <v>2</v>
+      </c>
+      <c r="G10" s="297">
         <v>8</v>
       </c>
-      <c r="H10" s="160">
+      <c r="H10" s="280">
         <v>9</v>
       </c>
-      <c r="I10" s="160">
-        <v>3</v>
-      </c>
-      <c r="J10" s="161">
-        <v>1</v>
-      </c>
-      <c r="L10" s="162"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170">
+      <c r="I10" s="271">
+        <v>3</v>
+      </c>
+      <c r="J10" s="272">
+        <v>1</v>
+      </c>
+      <c r="L10" s="151"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159">
         <v>7</v>
       </c>
-      <c r="P10" s="170">
+      <c r="P10" s="159">
         <v>6</v>
       </c>
-      <c r="Q10" s="170">
-        <v>2</v>
-      </c>
-      <c r="R10" s="170">
+      <c r="Q10" s="159">
+        <v>2</v>
+      </c>
+      <c r="R10" s="159">
         <v>8</v>
       </c>
-      <c r="S10" s="170">
+      <c r="S10" s="159">
         <v>9</v>
       </c>
-      <c r="T10" s="170">
-        <v>3</v>
-      </c>
-      <c r="U10" s="171">
-        <v>1</v>
-      </c>
-      <c r="V10" s="162"/>
-    </row>
-    <row r="11" spans="2:22" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
+      <c r="T10" s="159">
+        <v>3</v>
+      </c>
+      <c r="U10" s="160">
+        <v>1</v>
+      </c>
+      <c r="V10" s="151"/>
+    </row>
+    <row r="11" spans="2:22" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="151"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5867,28 +7583,28 @@
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="152"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
     </row>
     <row r="3" spans="2:5" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="152"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
     </row>
     <row r="4" spans="2:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="233"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="201"/>
     </row>
     <row r="5" spans="2:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5903,131 +7619,228 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="F1:J11"/>
+  <dimension ref="F1:X11"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="I1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="6:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="6:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="172">
-        <v>2</v>
-      </c>
-      <c r="H2" s="173">
-        <v>2</v>
-      </c>
-      <c r="I2" s="173">
-        <v>1</v>
-      </c>
-      <c r="J2" s="174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="6:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G3" s="175">
-        <v>2</v>
-      </c>
-      <c r="H3" s="176">
-        <v>1</v>
-      </c>
-      <c r="I3" s="176">
-        <v>2</v>
-      </c>
-      <c r="J3" s="177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="6:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G4" s="175">
-        <v>2</v>
-      </c>
-      <c r="H4" s="176">
-        <v>1</v>
-      </c>
-      <c r="I4" s="176">
-        <v>1</v>
-      </c>
-      <c r="J4" s="177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="6:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G5" s="178">
-        <v>1</v>
-      </c>
-      <c r="H5" s="179">
-        <v>1</v>
-      </c>
-      <c r="I5" s="179">
-        <v>2</v>
-      </c>
-      <c r="J5" s="180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="6:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="6:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F7" s="182"/>
-      <c r="G7" s="191">
-        <v>2</v>
-      </c>
-      <c r="H7" s="194">
-        <v>2</v>
-      </c>
-      <c r="I7" s="195">
-        <v>1</v>
-      </c>
-      <c r="J7" s="196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="6:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F8" s="182"/>
-      <c r="G8" s="183">
-        <v>2</v>
-      </c>
-      <c r="H8" s="188">
-        <v>1</v>
-      </c>
-      <c r="I8" s="192">
-        <v>2</v>
-      </c>
-      <c r="J8" s="193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="6:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="G9" s="184">
-        <v>2</v>
-      </c>
-      <c r="H9" s="181">
-        <v>1</v>
-      </c>
-      <c r="I9" s="188">
-        <v>1</v>
-      </c>
-      <c r="J9" s="189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="6:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G10" s="185">
-        <v>1</v>
-      </c>
-      <c r="H10" s="186">
-        <v>1</v>
-      </c>
-      <c r="I10" s="187">
-        <v>2</v>
-      </c>
-      <c r="J10" s="190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="6:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="6:24" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="6:24" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G2" s="312">
+        <v>2</v>
+      </c>
+      <c r="H2" s="313">
+        <v>2</v>
+      </c>
+      <c r="I2" s="313">
+        <v>1</v>
+      </c>
+      <c r="J2" s="314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="6:24" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="315">
+        <v>2</v>
+      </c>
+      <c r="H3" s="161">
+        <v>1</v>
+      </c>
+      <c r="I3" s="161">
+        <v>2</v>
+      </c>
+      <c r="J3" s="316">
+        <v>2</v>
+      </c>
+      <c r="U3" s="312">
+        <v>2</v>
+      </c>
+      <c r="V3" s="313">
+        <v>2</v>
+      </c>
+      <c r="W3" s="313">
+        <v>1</v>
+      </c>
+      <c r="X3" s="314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="6:24" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="315">
+        <v>2</v>
+      </c>
+      <c r="H4" s="161">
+        <v>1</v>
+      </c>
+      <c r="I4" s="161">
+        <v>1</v>
+      </c>
+      <c r="J4" s="316">
+        <v>2</v>
+      </c>
+      <c r="U4" s="315">
+        <v>2</v>
+      </c>
+      <c r="V4" s="161">
+        <v>1</v>
+      </c>
+      <c r="W4" s="161">
+        <v>2</v>
+      </c>
+      <c r="X4" s="316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="6:24" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="317">
+        <v>1</v>
+      </c>
+      <c r="H5" s="318">
+        <v>1</v>
+      </c>
+      <c r="I5" s="318">
+        <v>2</v>
+      </c>
+      <c r="J5" s="319">
+        <v>2</v>
+      </c>
+      <c r="U5" s="315">
+        <v>2</v>
+      </c>
+      <c r="V5" s="161">
+        <v>1</v>
+      </c>
+      <c r="W5" s="161">
+        <v>1</v>
+      </c>
+      <c r="X5" s="316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="6:24" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U6" s="317">
+        <v>1</v>
+      </c>
+      <c r="V6" s="318">
+        <v>1</v>
+      </c>
+      <c r="W6" s="318">
+        <v>2</v>
+      </c>
+      <c r="X6" s="319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="6:24" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="320"/>
+      <c r="G7" s="323">
+        <v>2</v>
+      </c>
+      <c r="H7" s="324">
+        <v>2</v>
+      </c>
+      <c r="I7" s="325">
+        <v>1</v>
+      </c>
+      <c r="J7" s="326">
+        <v>1</v>
+      </c>
+      <c r="M7" s="323">
+        <v>2</v>
+      </c>
+      <c r="N7" s="324">
+        <v>2</v>
+      </c>
+      <c r="O7" s="325">
+        <v>1</v>
+      </c>
+      <c r="P7" s="326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="6:24" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="320"/>
+      <c r="G8" s="321">
+        <v>2</v>
+      </c>
+      <c r="H8" s="164">
+        <v>1</v>
+      </c>
+      <c r="I8" s="327">
+        <v>2</v>
+      </c>
+      <c r="J8" s="328">
+        <v>2</v>
+      </c>
+      <c r="M8" s="321">
+        <v>2</v>
+      </c>
+      <c r="N8" s="164">
+        <v>1</v>
+      </c>
+      <c r="O8" s="327">
+        <v>2</v>
+      </c>
+      <c r="P8" s="328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="6:24" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="322">
+        <v>2</v>
+      </c>
+      <c r="H9" s="162">
+        <v>1</v>
+      </c>
+      <c r="I9" s="164">
+        <v>1</v>
+      </c>
+      <c r="J9" s="329">
+        <v>2</v>
+      </c>
+      <c r="M9" s="322">
+        <v>2</v>
+      </c>
+      <c r="N9" s="162">
+        <v>1</v>
+      </c>
+      <c r="O9" s="164">
+        <v>1</v>
+      </c>
+      <c r="P9" s="329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="6:24" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G10" s="331">
+        <v>1</v>
+      </c>
+      <c r="H10" s="332">
+        <v>1</v>
+      </c>
+      <c r="I10" s="333">
+        <v>2</v>
+      </c>
+      <c r="J10" s="330">
+        <v>2</v>
+      </c>
+      <c r="M10" s="331">
+        <v>1</v>
+      </c>
+      <c r="N10" s="332">
+        <v>1</v>
+      </c>
+      <c r="O10" s="333">
+        <v>2</v>
+      </c>
+      <c r="P10" s="330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:24" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6050,272 +7863,272 @@
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="182"/>
-      <c r="B2" s="201"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="215"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
-      <c r="M2" s="223">
-        <v>3</v>
-      </c>
-      <c r="N2" s="223">
-        <v>2</v>
-      </c>
-      <c r="O2" s="223">
+      <c r="A2" s="163"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="183"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191">
+        <v>3</v>
+      </c>
+      <c r="N2" s="191">
+        <v>2</v>
+      </c>
+      <c r="O2" s="191">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="182"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="216"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="223"/>
-      <c r="M3" s="223">
-        <v>1</v>
-      </c>
-      <c r="N3" s="223"/>
-      <c r="O3" s="223"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="184"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191">
+        <v>1</v>
+      </c>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
     </row>
     <row r="4" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="182"/>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="214"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="223"/>
-      <c r="O4" s="223"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="182"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
     </row>
     <row r="5" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="182"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="220"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223">
-        <v>2</v>
-      </c>
-      <c r="L5" s="223"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="223"/>
-      <c r="O5" s="223"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="188"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="191"/>
+      <c r="K5" s="191">
+        <v>2</v>
+      </c>
+      <c r="L5" s="191"/>
+      <c r="M5" s="191"/>
+      <c r="N5" s="191"/>
+      <c r="O5" s="191"/>
     </row>
     <row r="6" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="182"/>
-      <c r="B6" s="218"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="214"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="221"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
-      <c r="K6" s="223"/>
-      <c r="L6" s="223"/>
-      <c r="M6" s="223"/>
-      <c r="N6" s="223"/>
-      <c r="O6" s="223"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="189"/>
+      <c r="I6" s="191"/>
+      <c r="J6" s="191"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="191"/>
+      <c r="M6" s="191"/>
+      <c r="N6" s="191"/>
+      <c r="O6" s="191"/>
     </row>
     <row r="7" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="219"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="222"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223">
-        <v>3</v>
-      </c>
-      <c r="K7" s="223">
+      <c r="B7" s="187"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="190"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191">
+        <v>3</v>
+      </c>
+      <c r="K7" s="191">
         <v>5</v>
       </c>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223">
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191">
         <v>4</v>
       </c>
-      <c r="O7" s="223"/>
+      <c r="O7" s="191"/>
     </row>
     <row r="8" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I8" s="223">
+      <c r="I8" s="191">
         <v>4</v>
       </c>
-      <c r="J8" s="223"/>
-      <c r="K8" s="223"/>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="223"/>
-      <c r="O8" s="223">
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="198"/>
-      <c r="X9" s="202"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="203"/>
-      <c r="AA9" s="203"/>
-      <c r="AB9" s="203"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="204"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="X9" s="170"/>
+      <c r="Y9" s="171"/>
+      <c r="Z9" s="171"/>
+      <c r="AA9" s="171"/>
+      <c r="AB9" s="171"/>
+      <c r="AC9" s="171"/>
+      <c r="AD9" s="172"/>
     </row>
     <row r="10" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="224"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="226"/>
-      <c r="I10" s="182"/>
-      <c r="K10" s="197"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="X10" s="205"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="206"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="194"/>
+      <c r="I10" s="163"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="174"/>
     </row>
     <row r="11" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="227"/>
-      <c r="C11" s="228"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="228"/>
-      <c r="F11" s="228"/>
-      <c r="G11" s="229"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="198"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="182"/>
-      <c r="X11" s="205"/>
-      <c r="Y11" s="152"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="152"/>
-      <c r="AC11" s="152"/>
-      <c r="AD11" s="206"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="197"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="163"/>
+      <c r="X11" s="173"/>
+      <c r="Y11" s="149"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="174"/>
     </row>
     <row r="12" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="227"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="228"/>
-      <c r="G12" s="229"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="M12" s="198"/>
-      <c r="N12" s="198"/>
-      <c r="O12" s="200"/>
-      <c r="X12" s="205"/>
-      <c r="Y12" s="152"/>
-      <c r="Z12" s="152"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="152"/>
-      <c r="AC12" s="152"/>
-      <c r="AD12" s="206"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="197"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="168"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="174"/>
     </row>
     <row r="13" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="227"/>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="229"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="200"/>
-      <c r="N13" s="197"/>
-      <c r="O13" s="197"/>
-      <c r="X13" s="205"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="206"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="197"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="168"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="174"/>
     </row>
     <row r="14" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="227"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="228"/>
-      <c r="F14" s="228"/>
-      <c r="G14" s="229"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="198"/>
-      <c r="L14" s="197"/>
-      <c r="M14" s="200"/>
-      <c r="O14" s="182"/>
-      <c r="X14" s="205"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="206"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="197"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="166"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="168"/>
+      <c r="O14" s="163"/>
+      <c r="X14" s="173"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="174"/>
     </row>
     <row r="15" spans="1:30" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="230"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="231"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="231"/>
-      <c r="G15" s="232"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="182"/>
-      <c r="X15" s="207"/>
-      <c r="Y15" s="208"/>
-      <c r="Z15" s="208"/>
-      <c r="AA15" s="208"/>
-      <c r="AB15" s="208"/>
-      <c r="AC15" s="208"/>
-      <c r="AD15" s="209"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="200"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="163"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="176"/>
+      <c r="Z15" s="176"/>
+      <c r="AA15" s="176"/>
+      <c r="AB15" s="176"/>
+      <c r="AC15" s="176"/>
+      <c r="AD15" s="177"/>
     </row>
     <row r="16" spans="1:30" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -6331,53 +8144,53 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J5"/>
+  <dimension ref="B2:N5"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J5"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="152"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="152"/>
-    </row>
-    <row r="3" spans="2:10" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="152"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="152"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="233"/>
-    </row>
-    <row r="4" spans="2:10" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="152"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="233"/>
-      <c r="G4" s="235"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="240"/>
-      <c r="J4" s="233"/>
-    </row>
-    <row r="5" spans="2:10" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="152"/>
+    <row r="2" spans="2:14" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="149"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="149"/>
+    </row>
+    <row r="3" spans="2:14" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="149"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="149"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="311"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="201"/>
+    </row>
+    <row r="4" spans="2:14" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="149"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="201"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="201"/>
+    </row>
+    <row r="5" spans="2:14" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="178"/>
+      <c r="M5" s="178"/>
+      <c r="N5" s="149"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/making/example.xlsx
+++ b/making/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoue\study\TeX\Graduation_Thesis\making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF6EDE6-4C2F-468A-BA85-7F7D76BD7186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1677BF-A092-4891-AD82-A319192A4DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
   </bookViews>
@@ -4766,7 +4766,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="209" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6492,8 +6492,8 @@
   </sheetPr>
   <dimension ref="L2:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11:AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6889,6 +6889,7 @@
       <c r="Q11" s="110"/>
       <c r="R11" s="110"/>
       <c r="S11" s="110"/>
+      <c r="AJ11" s="110"/>
     </row>
     <row r="12" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M12" s="111">
@@ -6933,6 +6934,13 @@
       <c r="AB12" s="117">
         <v>3</v>
       </c>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="350"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="117"/>
     </row>
     <row r="13" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M13" s="118">
@@ -6977,6 +6985,13 @@
       <c r="AB13" s="123">
         <v>1</v>
       </c>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="352"/>
+      <c r="AJ13" s="351"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="123"/>
     </row>
     <row r="14" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M14" s="126">
@@ -7021,6 +7036,13 @@
       <c r="AB14" s="130">
         <v>1</v>
       </c>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="114"/>
+      <c r="AH14" s="121"/>
+      <c r="AI14" s="127"/>
+      <c r="AJ14" s="128"/>
+      <c r="AK14" s="129"/>
+      <c r="AL14" s="130"/>
     </row>
     <row r="15" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L15" s="131"/>
@@ -7066,6 +7088,13 @@
       <c r="AB15" s="125">
         <v>0</v>
       </c>
+      <c r="AF15" s="132"/>
+      <c r="AG15" s="124"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="133"/>
+      <c r="AJ15" s="133"/>
+      <c r="AK15" s="122"/>
+      <c r="AL15" s="125"/>
     </row>
     <row r="16" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="M16" s="134">
@@ -7110,8 +7139,15 @@
       <c r="AB16" s="137">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="12:28" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AF16" s="134"/>
+      <c r="AG16" s="128"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="133"/>
+      <c r="AJ16" s="135"/>
+      <c r="AK16" s="136"/>
+      <c r="AL16" s="137"/>
+    </row>
+    <row r="17" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L17" s="131"/>
       <c r="M17" s="114">
         <v>2</v>
@@ -7155,8 +7191,16 @@
       <c r="AB17" s="136">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="12:28" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AE17" s="131"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="354"/>
+      <c r="AJ17" s="353"/>
+      <c r="AK17" s="135"/>
+      <c r="AL17" s="136"/>
+    </row>
+    <row r="18" spans="12:38" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L18" s="131"/>
       <c r="M18" s="139">
         <v>3</v>
@@ -7200,6 +7244,13 @@
       <c r="AB18" s="139">
         <v>3</v>
       </c>
+      <c r="AF18" s="139"/>
+      <c r="AG18" s="140"/>
+      <c r="AH18" s="139"/>
+      <c r="AI18" s="355"/>
+      <c r="AJ18" s="141"/>
+      <c r="AK18" s="143"/>
+      <c r="AL18" s="139"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/making/example.xlsx
+++ b/making/example.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itk_m\作業\研究室\Graduation_Thesis\making\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoue\study\TeX\Graduation_Thesis\making\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A912CE-5A7C-473E-A515-B0C02045BA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A5EC49-B1F3-4EE7-94C6-ECBE827350A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1530" windowWidth="16965" windowHeight="12885" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{74C1D57F-9055-402A-BC8A-8E50389C8B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="HIExample" sheetId="13" r:id="rId1"/>
     <sheet name="Master" sheetId="6" r:id="rId2"/>
     <sheet name="Material" sheetId="1" r:id="rId3"/>
-    <sheet name="スリザーリンク" sheetId="2" r:id="rId4"/>
+    <sheet name="SlitherLink" sheetId="2" r:id="rId4"/>
     <sheet name="SamplePuzzle" sheetId="5" r:id="rId5"/>
     <sheet name="Board" sheetId="3" r:id="rId6"/>
     <sheet name="NewPuzzle" sheetId="8" r:id="rId7"/>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="272">
+  <borders count="275">
     <border>
       <left/>
       <right/>
@@ -3847,13 +3855,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="3"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4911,6 +4956,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="271" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="266" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="181" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="177" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="272" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="199" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="170" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="274" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="201" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="191" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="172" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="185" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="273" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5237,8 +5318,8 @@
   </sheetPr>
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:O5"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5261,9 +5342,7 @@
       <c r="G2" s="336">
         <v>2</v>
       </c>
-      <c r="H2" s="337">
-        <v>3</v>
-      </c>
+      <c r="H2" s="337"/>
       <c r="I2" s="338">
         <v>2</v>
       </c>
@@ -5272,7 +5351,7 @@
         <v>2</v>
       </c>
       <c r="M2" s="352">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="348">
         <v>2</v>
@@ -6379,7 +6458,7 @@
   <dimension ref="L1:AM28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20:AC28"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7574,38 +7653,78 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E5"/>
+  <dimension ref="B1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:5" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="346"/>
+      <c r="K1" s="346"/>
+    </row>
+    <row r="2" spans="2:12" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="149"/>
       <c r="C2" s="181"/>
       <c r="D2" s="149"/>
       <c r="E2" s="149"/>
-    </row>
-    <row r="3" spans="2:5" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="353">
+        <v>2</v>
+      </c>
+      <c r="J2" s="354">
+        <v>2</v>
+      </c>
+      <c r="K2" s="355">
+        <v>2</v>
+      </c>
+      <c r="L2" s="356"/>
+    </row>
+    <row r="3" spans="2:12" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="149"/>
       <c r="C3" s="178"/>
       <c r="D3" s="149"/>
       <c r="E3" s="149"/>
-    </row>
-    <row r="4" spans="2:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="320"/>
+      <c r="I3" s="357"/>
+      <c r="J3" s="358">
+        <v>1</v>
+      </c>
+      <c r="K3" s="358"/>
+      <c r="L3" s="359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="149"/>
       <c r="C4" s="149"/>
       <c r="D4" s="202"/>
       <c r="E4" s="201"/>
-    </row>
-    <row r="5" spans="2:5" ht="150" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="360"/>
+      <c r="J4" s="358"/>
+      <c r="K4" s="361"/>
+      <c r="L4" s="355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="149"/>
       <c r="C5" s="149"/>
       <c r="D5" s="149"/>
       <c r="E5" s="149"/>
-    </row>
+      <c r="I5" s="362">
+        <v>1</v>
+      </c>
+      <c r="J5" s="357">
+        <v>2</v>
+      </c>
+      <c r="K5" s="363">
+        <v>2</v>
+      </c>
+      <c r="L5" s="364"/>
+    </row>
+    <row r="6" spans="2:12" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
